--- a/noticias.xlsx
+++ b/noticias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,383 +439,4098 @@
           <t>Título</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Número de Ocorrência</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Monetário</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A Straightforward Climate Fix Hits Another Setback</t>
-        </is>
+          <t>2024-25 MLB Top 40 Free Agent Big Board: Pete Alonso returns to Mets, Alex Bregman goes to Red Sox</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Analysis, best fits, and contract projections on a strong class that includes Pete Alonso and Alex Bregman.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Europe Tries to Boost Military Spending as America Realigns</t>
-        </is>
+          <t>Trump’s Decision to Halt Aid to Ukraine Could Reorder the Battlefield</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Officials have suggested that the pause in weapons shipments and intelligence sharing could be relatively short-lived if Ukraine’s president bends to White House demands.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05DC-UKRAINE-BATTLE-1-kljv/05DC-UKRAINE-BATTLE-1-kljv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trump’s Sharp Shift on Ukraine and Russia</t>
-        </is>
+          <t>South Africa Prepares Trade Deal Meant to Ease Tensions With Trump</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lawmakers were warned that the United States is planning more punitive actions against the country. Officials hope a new trade deal will help repair the icy relations.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05safrica-summit-1-bvfk/05safrica-summit-1-bvfk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Companies in Europe Face Squeeze in U.S.-China Trade War</t>
-        </is>
+          <t>Most Contaminated U.S. Nuclear Site Is Set to Be the Largest Solar Farm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Plans to transform Hanford, which was integral to the nation’s nuclear arsenal after World War II, had just begun inching forward when President Trump started his second term.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/21/multimedia/00Hanford-01-wjgt/00Hanford-01-wjgt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What's the Cardinals' direction this year? Spring training mailbag, Part 1</t>
-        </is>
+          <t>Trump to Pause Auto Tariffs for One Month as Other Levies Continue</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The president said he would pause a 25 percent tariff on cars coming from Canada and Mexico under a trade pact for one month, while other levies stay in place.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05trump-news-tariffs-ktwhsub-vckw/05trump-news-tariffs-ktwhsub-vckw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Government Knows A.G.I. Is Coming</t>
-        </is>
+          <t>A metrics-driven approach to corner infield draft strategy for fantasy baseball 2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Owen Poindexter illustrates how the power-laden corner infield positions are remarkably similar in makeup for fantasy baseball 2025.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Government Knows A.G.I. is Coming</t>
-        </is>
+          <t>Frustration Grows Inside the White House Over Pace of Deportations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>President Trump’s promise to launch the largest deportation operation in U.S. history is colliding with the practical difficulties of detaining people and transporting them across the globe.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04DC-IMMIG-jlzb/04DC-IMMIG-jlzb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How Covid Remade America</t>
-        </is>
+          <t>Here’s what to know about the House Oversight Committee.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The panel, filled with firebrands and big personalities from both sides of the aisle, is known more for theatrics than substantive probes.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05sanctuary-cities-oversight-wzgk/05sanctuary-cities-oversight-wzgk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>After the Apocalypse, Will We Decamp to a Suburb or a High-Rise?</t>
-        </is>
+          <t>After Days of Coaching, Zelensky Seeks a Path to Trump’s Good Graces</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Prime Minister Keir Starmer of Britain and President Emmanuel Macron of France have been prodding and counseling Volodymyr Zelensky on how to deal with President Trump.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05ukraine-zelensky-01-mkbw/05ukraine-zelensky-01-mkbw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Can a Finnish Sauna Improve Society?</t>
-        </is>
+          <t>Guarded N.I.H. Nominee Faces Sharp Questions on Vaccines and Research Cuts</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dr. Jay Bhattacharya, a professor of medicine at Stanford University, gained prominence during the Covid pandemic when he argued against lockdowns.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05trump-news-nih-hearing-fvbq/05trump-news-nih-hearing-fvbq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Showing Courage in Ukraine With Handfuls of Clay</t>
-        </is>
+          <t>Trump Officials Take Down List of Federal Properties for Possible Sale</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The Trump administration originally identified more than 440 federal properties that could be sold, which included the headquarters of the F.B.I. and Justice Department.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05dc-gsa-vtkl/05dc-gsa-vtkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Loving a House From Afar, and Then Tearing it Down</t>
-        </is>
+          <t>Supreme Court Rejects Trump’s Bid to Freeze Foreign Aid</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The move came after Chief Justice Roberts temporarily paused a trial judge’s order requiring the administration to release more than $1.5 billion.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-scotus-pjfl/00dc-scotus-pjfl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>China Retaliates Against Trump Tariffs as Superpower Trade War Escalates</t>
-        </is>
+          <t>Boston’s mayor says the city’s approach works, highlighting its low homicide rate.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05sanctuary-cities-boston-zbjq/05sanctuary-cities-boston-zbjq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany Needs to Get Its Act Together. Under Him, It Won’t.</t>
-        </is>
+          <t>Our Daughter Expects Child Care Even When Her Toddler Is Sick. Help!</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A reader who has already contracted colds and the flu from her 18-month-old grandchild is flustered by her daughter’s indifference to her health concerns.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2021/06/20/fashion/socialqs-2021-artwork/socialqs-2021-artwork-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LinkedIn, volunteers, and reliant on goodwill. Scouting in women's football's lower leagues remains embryonic</t>
-        </is>
+          <t>The winners (and potential losers) of the Clemson, FSU and ACC legal fight</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Clemson and Florida State are settling their lawsuits with the ACC, bringing stability to the conference — for now. What does it all mean?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trump’s Tariffs on Canada, Mexico and China Snap Into Effect</t>
-        </is>
+          <t>A Rally in Congress</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>We cover President Trump’s address to Congress.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05themorning-nl-LEDE-fpcw/05themorning-nl-LEDE-fpcw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senate Confirms Linda McMahon as Education Secretary</t>
-        </is>
+          <t>Digg Returns, With Social Media in Tumult</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Two decades after creating Digg, a community-focused social message board, Kevin Rose is reviving the site and teaming up with a founder of Reddit.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05BIZ-DIGG-both-vthj/05BIZ-DIGG-both-vthj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Trump Said Tariffs Are Coming</t>
-        </is>
+          <t>As U.S. Tariffs Become Reality, Canadians Prepare for Economic Pain</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>An expert in the automotive industry says factories may shut down in days as costs skyrocket and President Trump disrupts decades of economic integration with steep tariffs.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05-Canada-Tariffs-jmzt/05-Canada-Tariffs-jmzt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SpaceX Scrubs 8th Starship Rocket Test Flight</t>
-        </is>
+          <t>How Soon Could Ukraine’s Forces ‘Start to Buckle’ Without U.S. Weapons?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>It could be as little as four months, say analysts, as Europe scrambles to plug the hole in support left by President Trump’s suspension of military aid.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/2025-03-04-ukraine-aid-treemap-static-index/2025-03-04-ukraine-aid-treemap-static-index-threeByTwoSmallAt2X-v2.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Social Security and Sex Robots: Musk Veers Off Script With Joe Rogan</t>
-        </is>
+          <t>What Some Reluctant Trump Voters Thought of His Speech</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>For many reluctant Trump voters, there was a mixture of confidence, anxiety, hope and frustration — along with some anger directed at congressional Democrats.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/world/05nat-100days-tali-promo-new/05nat-100days-tali-promo-new-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stocks Post Biggest Loss of the Year on Trump’s Tariff Plans</t>
-        </is>
+          <t>Elon Musk and the Useless Spending-Cut Theater of DOGE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The columnist David French speaks with a fellow fiscal conservative about what the Department of Government Efficiency should actually be doing.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/opinion/05opinions-french-riedl/05opinions-french-riedl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dozens of Government Technology Specialists Fired</t>
-        </is>
+          <t>Trump Picked a Health Economist to Lead the N.I.H. It’s Not a Bad Idea.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Can Dr. Jay Bhattacharya reform America’s primary medical research agency?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/opinion/05Jena/05Jena-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9 Stylish Products for Your Home</t>
-        </is>
+          <t>The Wizard of Vinyl Is in Kansas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chad Kassem is on a mission — saving listeners “from bad sound” — at the rural factory where he pores over LPs from some of music’s most important artists.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09KANSAS-VINYL-PROMO-qmkc/09KANSAS-VINYL-PROMO-qmkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A.I. Start-Up Anthropic Closes Deal That Values It at $61.5 Billion</t>
-        </is>
+          <t>NFL combine takeaways for all 32 teams: What we learned about draft and free agency plans</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>With the NFL combine done, The Athletic's beat writers share what they learned about each team as the draft (and free agency) draws near.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The ‘Disgraceful Display’ in the Oval Office</t>
-        </is>
+          <t>Bowden’s 2025 MLB report card: Offseason grades, takeaways, predictions for all 30 teams</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>I handed out six A's (including A-pluses and A-minuses), 12 B's, eight C's, three D's, and one F. Where did your team end up?</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TSMC, the Chip Giant, Is to Spend $100 Billion in U.S. Over the Next 4 Years</t>
-        </is>
+          <t>Late Night Is Underwhelmed by Trump’s Address to Congress</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Jimmy Kimmel noted that the president’s speech started late: “I guess they were waiting for that last coat of shellac to dry on his face.”</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/arts/05latenight/05latenight-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Where to Stream the 2025 Oscar Winners, From ‘Anora’ to ‘Flow’</t>
-        </is>
+          <t>As Alliances Fray Under Trump, This Nation Is Confident of U.S. Ties</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Officials in the Philippines say that President Trump will not pull back from defense commitments because Manila and Washington have a common adversary.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05philippines-us-01-cjpw/05philippines-us-01-cjpw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Read the Memo</t>
-        </is>
+          <t>‘Bed Party’</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>What do you think of a new style of celebration that involves parents tricking out their child’s bed after a college acceptance?</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/28BED-PARTIES-02-wmhp/28BED-PARTIES-02-wmhp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trump Faces Blowback Over Plans for Crypto Reserve</t>
-        </is>
+          <t>6 Takeaways From Trump’s Address to Congress</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>In a lengthy speech, President Trump promoted his administration’s rapid early moves and reprised the themes of his campaign, vowing to crack down on illegal immigration and “wokeness.”</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04dc-takeaways-01-lhmt/04dc-takeaways-01-lhmt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trump Turns Up Trade Pressure on China After Beijing Fails to Come Running</t>
-        </is>
+          <t>Judge Denies Musk’s Request to Block OpenAI’s For-Profit Plan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The court said that Elon Musk could proceed with other parts of a lawsuit he brought against OpenAI last year.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-musk-tclz/05biz-musk-tclz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What Big-Business Leaders, Including Democrats, Say Privately About Trump</t>
-        </is>
+          <t>Trump Says Japan and South Korea Want to Invest in $44 Billion Gas Project</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Investors have balked at the project, stalling its progress. But under the threat of tariffs, Japan and South Korea have started exploring ways to invest in Alaska L.N.G.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04trump-speech-congress-japan-ztck/04trump-speech-congress-japan-ztck-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A Thousand Snipers in the Sky: The New War in Ukraine</t>
-        </is>
+          <t>Wednesday Briefing</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Here’s what you need to know.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/05ambriefing-europe-nl-trump-1/05ambriefing-europe-nl-trump-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>How VAR disrupts Premier League betting and how to get ahead of that</t>
-        </is>
+          <t>Full Transcript of President Trump’s Speech to Congress</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>In a speech to Congress in his first weeks in office, the president laid out his vision to remake U.S. policy on the military, trade, immigration and foreign aid.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04dc-transcript-wvkg/04dc-transcript-wvkg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Problems With New California Bar Exam Enrage Test Takers and Cloud Their Futures</t>
-        </is>
+          <t>“We found hundreds of billions of dollars of fraud.”</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DOGE Claims Credit for Killing Contracts That Were Already Dead</t>
-        </is>
+          <t>“1.3 million people from ages 150 to 159, and over 130,000 people, according to the Social Security databases, are age over 160 years old.”</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Horticulturists, Biologists, Engineers: Federal ‘Bloat’ or Valued Experts?</t>
-        </is>
+          <t>“We will take in trillions and trillions of dollars and create jobs like we have never seen before.”</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Professor, Scrutinized for Ties to China, Sues to Get His Job Back</t>
-        </is>
+          <t>“I withdrew from the unfair Paris climate accord, which was costing us trillions of dollars that other countries were not paying.”</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>320 Years Before the Muppets, the English Took Manhattan</t>
-        </is>
+          <t>“As you know, we inherited, from the last administration, an economic catastrophe and an inflation nightmare.”</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>His Pitch to Save His Career: A Podcast About His Dead Best Friend</t>
-        </is>
+          <t>Dozens of Canadians Are Charged in $21 Million ‘Grandparent Scam’</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The conspirators called older adults and posed as their grandchildren in need of bail money after a fake arrest, federal prosecutors said.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04xp-grannyscam/04xp-grannyscam-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>‘Full on Fight Club’: How Trump Is Crushing U.S. Climate Policy</t>
-        </is>
+          <t>A Kennedy Ally Puts Money Into a Push to Recall Karen Bass</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nicole Shanahan, who pumped millions into Robert F. Kennedy Jr.’s campaign last year and joined him on the ticket, is now backing an effort to remove Mayor Bass of Los Angeles.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04pol-bass-recall-topart-hpgj/04pol-bass-recall-topart-hpgj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Innovative content, Son and the king: How Tottenham became the biggest English club on TikTok</t>
-        </is>
+          <t>Trump Says Japan and South Korea Want to Invest in $44 Billion Gas Project</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Investors have balked at the project, stalling its progress. But under the threat of tariffs, Japan and South Korea have started exploring ways to invest in Alaska L.N.G.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04trump-speech-congress-japan-ztck/04trump-speech-congress-japan-ztck-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>‘Moon Dust on Our Boots’: Texas Company’s Blue Ghost Lands on Lunar Surface</t>
-        </is>
+          <t>Wednesday Briefing</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Here’s what you need to know.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/05ambriefing-europe-nl-trump-1/05ambriefing-europe-nl-trump-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hazel N. Dukes, Longtime Civil Rights Stalwart, Dies at 92</t>
-        </is>
+          <t>Full Transcript of President Trump’s Speech to Congress</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>In a speech to Congress in his first weeks in office, the president laid out his vision to remake U.S. policy on the military, trade, immigration and foreign aid.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04dc-transcript-wvkg/04dc-transcript-wvkg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Explained: Why a VAR review took eight minutes on first weekend of new technology</t>
-        </is>
+          <t>“We found hundreds of billions of dollars of fraud.”</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Trump Relaxes Limits on Counterterrorism Strikes Outside Conventional War Zones</t>
-        </is>
+          <t>“1.3 million people from ages 150 to 159, and over 130,000 people, according to the Social Security databases, are age over 160 years old.”</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Norway to keep VAR despite pro clubs voting to scrap system</t>
-        </is>
+          <t>“We will take in trillions and trillions of dollars and create jobs like we have never seen before.”</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Goalkeeper time-wasting will lead to corners from 2025-26</t>
-        </is>
+          <t>“I withdrew from the unfair Paris climate accord, which was costing us trillions of dollars that other countries were not paying.”</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hair Transplants and the New Male Vanity</t>
-        </is>
+          <t>“As you know, we inherited, from the last administration, an economic catastrophe and an inflation nightmare.”</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cubs' Matthew Boyd isn't reinventing himself. He's doubling down on who he is</t>
-        </is>
+          <t>Dozens of Canadians Are Charged in $21 Million ‘Grandparent Scam’</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The conspirators called older adults and posed as their grandchildren in need of bail money after a fake arrest, federal prosecutors said.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04xp-grannyscam/04xp-grannyscam-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Dark Heart of Trump’s Foreign Policy</t>
-        </is>
+          <t>A Kennedy Ally Puts Money Into a Push to Recall Karen Bass</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nicole Shanahan, who pumped millions into Robert F. Kennedy Jr.’s campaign last year and joined him on the ticket, is now backing an effort to remove Mayor Bass of Los Angeles.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04pol-bass-recall-topart-hpgj/04pol-bass-recall-topart-hpgj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The Dark Heart of Trump’s Foreign Policy</t>
-        </is>
+          <t>Judge Blocks Trump Orders to Stop Funds for Trans Youth Health Providers</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The ruling affects hospitals nationwide, putting on hold the administration’s plan to withhold research grants from those that offer gender transition treatments to young people.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/12/us/04nat-trans-health-1/HFOnat-trans-case-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cuts to National Weather Service Leave Forecasters Reeling</t>
-        </is>
+          <t>American Farmers Brace for Harm From Retaliatory Tariffs</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Trade wars during President Trump’s first term slashed billions of dollars in U.S. agricultural exports. Farmers and trade groups expect an even bigger hit this time.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04retaliation-agriculture-01-tjgh/04retaliation-agriculture-01-tjgh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Why Do S.U.V.s Look Like Trucks Again?</t>
-        </is>
+          <t>Lawsuit Over Zelle Scams Is Dropped by Consumer Bureau</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A spokeswoman for the payment app’s parent company said the lawsuit against three large banks was “without merit, and legally and factually flawed.”</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-cfpb-zelle-jwcz/04biz-cfpb-zelle-jwcz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Inside the Democratic Disaster That Didn’t Happen in November</t>
-        </is>
+          <t>Climate Groups Were Counting on $20 Billion. Trump Won’t Let Them Access It.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The Justice Department and F.B.I. are investigating $20 billion in climate funds, despite a top prosecutor’s decision that there was not sufficient evidence of wrongdoing.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04cli-epa-01-mzfg/04cli-epa-01-mzfg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Trump’s Trade War Could Be His Biggest Economic Gamble</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>President Trump has offered a mix of reasons for upending global trade relations, baffling and angering America’s biggest trading partners.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04dc-trump-trade-topart-ztmc/04dc-trump-trade-topart-ztmc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Trump Threatens Columbia With Millions in Cuts Over Antisemitism Claims</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>The university, the administration’s first big target in a campaign to root out what it called harassment on campus, could lose more than $50 million in funding.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04ny-columbia-01-jlpw/04ny-columbia-01-jlpw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Wednesday Briefing: Canada and China Strike Back at Tariffs</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Plus, a top architecture award for Liu Jiakun.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/05ambriefing-asia-tariffs/05ambriefing-asia-tariffs-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>The Big Government Contracts DOGE Hasn’t Touched</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>By not targeting major sources of spending like defense, the group has had a minimal impact on the federal budget so far but a big effect on many small companies.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/00up-usaid1-zlqv/00up-usaid1-zlqv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>F1 is now Las Vegas’ largest annual event despite revenue dip in 2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The total of $934 million is over half a billion dollars down on the estimated economic impact from the first year in Las Vegas.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Germans Agree to Borrow More for Military, in Sharp Response to Trump</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The agreement between Friedrich Merz, the likely next chancellor, and his potential coalition partners also includes big new infrastructure spending.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04germany-1-tbqw/04germany-1-tbqw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veterans Are Caught Up in Trump’s and Musk’s Work Force Overhaul</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Nearly 30 percent of civil service employees in the federal government are veterans. Democrats are highlighting their firings by taking some as guests to President Trump’s address on Tuesday.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04DC-VETERANS-jvgb/04DC-VETERANS-jvgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tariffs will force U.S. oil refineries to pay more for Canadian crude oil.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04tariffs-news-oil-refinery-impact-htbk/04tariffs-news-oil-refinery-impact-htbk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Conservatives Hobble Iran’s Moderate President, Stoking a Political Crisis</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>With Iran already wounded economically and diplomatically, hard-liners forced out two top officials and blocked talks with the United States, freezing President Masoud Pezeshkian’s agenda.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04iran-1-cjbg/04iran-1-cjbg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Is taking European games to the U.S. worth the trouble? Serie A wants to set the trend</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>As heretical as it is to traditionalists, European leagues have been fantasising about playing meaningful games in the U.S. for years</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>The ACC-FSU-Clemson legal battle is ending. How long will realignment peace reign?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>The ACC will no longer distribute media-rights revenue equally but give bonuses to schools that draw the most TV viewers.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>After Trump Applies Pressure, Wall Street Giant Moves Into Panama</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>An investor group led by BlackRock will acquire two ports near the Panama Canal that are owned by CK Hutchison and have been the subject of a dispute between President Trump and Panama.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-panama-ports-zcvk/04biz-panama-ports-zcvk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Beyond tiers, giving shape to the middle infield positions for fantasy baseball 2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Owen Poindexter illustrates the fantasy baseball values of this year's middle infielders by charting their ADP vs. their ATC projections.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Trump’s Crypto Reserve Plan Raises Doubts. Here’s What We Know.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The prospect of using taxpayer money to stockpile cryptocurrencies in a national reserve has drawn criticism from lawmakers and investors.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04db-crypto-reserve-wwk-lwht/04db-crypto-reserve-wwk-lwht-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>What I heard about the Giants at NFL combine: QB plan, free agent targets and trading up</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>After missing out on Matthew Stafford, what will the Giants do at QB? Is Aaron Rodgers their new No. 1 target?</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Trump’s Tariffs Plunge Global Markets Into a Sea of Red</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Global leaders are retaliating and investors have sold off stocks in Asia and Europe.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04db-markets-lmpz/04db-markets-lmpz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sabres fan survey results: Kevyn Adams, Terry Pegula approval ratings plummeting</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The Sabres have tested the passion and patience of the fan base with what will soon be a 14-season playoff drought.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Who says no? Evaluating your Wild trade proposals, from Boeser to Marchand to ... McDavid</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Subscribers submitted nearly 500 trade proposals for a team likely to do nothing before the deadline. An NHL exec helped us evaluate them.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>The Pulse: Oh no, Dallas ... Kyrie went down too</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Welcome to The Pulse, The Athletic's daily sports newsletter.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Trade War Sends a Shiver Through Global Markets</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Wall Street has wiped out the gains made since President Trump’s election victory, as investors’ hopes of business-friendly policies have given way to fears over tariffs.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04STOCKS-tvwc/04STOCKS-tvwc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Target Tries to Put a Tough Year Behind It, but Tariffs Loom</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>The retailer ended 2024 with a good holiday season, but warned of uncertainty ahead.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-target-ckwp/04biz-target-ckwp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>America’s Flex</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>We cover President Trump’s new tariffs.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04themorning-nl-Trump-gqlf/04themorning-nl-Trump-gqlf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Why Is Trump Pausing Aid to Ukraine? What to Know.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>The decision marked the realization of a fear that has racked Ukraine since President Trump’s re-election.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04ukraine-aid-wwk-hbvf/04ukraine-aid-wwk-hbvf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DOGE Has a Math Problem</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Why the claims of Elon Musk’s government-cutting team are not what they seem.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04DAILY-doge-musk-wltc/04DAILY-doge-musk-wltc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The Problem With Car Tariffs: What’s an Import?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Supply chains extend across U.S. borders with Mexico and Canada, making it hard to say what’s American-made.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/2025-02-28-car-import-tariff-index/2025-02-28-car-import-tariff-index-threeByTwoSmallAt2X-v7.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Fact-Checking Trump’s Claims on Tariffs, Ukraine and DOGE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>The president has repeatedly made false or misleading claims in pursuing an aggressive agenda in the first weeks of his second term.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/dc-factcheck-hgtf/dc-factcheck-hgtf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Mardi Gras 2025: Joy and Jitters for New Orleans</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>There was never any question that Mardi Gras would go forward after the New Year’s Day terror attack in New Orleans. But some revelers felt at least a hint of trepidation.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/us/04nat-mardi-gras-07/04nat-mardi-gras-07-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The Bliss of Wearing Butter Yellow</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Charisma, positivity and warmth are traits that fans attribute to the color, which has been on the ascent.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/fashion/04AC-BUTTER-YELLOW-sabrina/04AC-BUTTER-YELLOW-sabrina-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Here’s What to Watch For in Trump’s Speech to Congress</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Presidents typically use these speeches to promote their accomplishments and lay out their plans. President Trump is expected to touch on Ukraine and government cuts.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04dc-what-to-watch-topart-btgh/04dc-what-to-watch-topart-btgh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>How Covid Remade America</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>It feels as if the pandemic is behind us. But we’re living in the world it made.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/opinion/covid-anniversary-cinemagraph23-still/covid-anniversary-cinemagraph23-still-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>The ‘Parasite’ Director Brings Class Warfare To Outer Space</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Bong Joon Ho has turned his funny-sad excavations of life under capitalism into unlikely blockbusters. With “Mickey 17,” he’s bending a whole new genre.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/26/magazine/mag-09bong-02/mag-09bong-02-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Why Putin Can’t Wait to Have McDonald’s Back in Moscow</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>As the Trump administration pushes for renewed business ties with Russia, a new book looks back at the companies that helped prop up illiberalism in the country.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/books/review/04Hecker-Review/04Hecker-Review-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Here’s How to Watch Trump’s Address to Congress</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>At 9 p.m. Eastern, President Trump will speak to a joint session of Congress for the first time in his second term. The New York Times will carry the address live.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04dc-how-to-watch-topart-tfgm/04dc-how-to-watch-topart-tfgm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Where Being Gay Is Punishable by Death, Aid Cuts Are ‘Heartbreaking’</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Uganda’s L.G.B.T.Q. population was already struggling to cope with the fallout of a harsh anti-gay law when the disruption of U.S. aid put people at even greater risk.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04uganda-usaid-3-vqkh/04uganda-usaid-3-vqkh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chinese Company to Single Workers: Get Married or Get Out</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>As China’s government worries about the falling birthrate, some private employers have ordered workers to do their part, or else.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/00china-marriage-01-lhft/00china-marriage-01-lhft-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Is It Time to Transfer Frozen Russian Assets to Ukraine? Calls Grow Louder.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>President Trump’s threat to abandon Ukraine added urgency to plans to fund security or reconstruction with the roughly $300 billion owned by Russia’s central bank.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/00Biz-Russia-Assets-01-tbqh/00Biz-Russia-Assets-01-tbqh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Maine Lobster Industry Can Sue Seafood Watchdog for Defamation, Judge Rules</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A group of fishermen says that it lost business after Seafood Watch, a program run by the Monterey Bay Aquarium, advised consumers not to buy lobster from the state.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2024/09/09/multimedia/03xp-lobster/09skybox3-inyt-lfzt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>The Best Movies and TV Shows Coming to Netflix in March</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>New arrivals for U.S. subscribers include a sweeping adaptation of a literary classic and a quirky science-fiction movie starring Millie Bobby Brown.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/arts/03netflix-new/03netflix-new-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Struggling With Errors, DOGE Deletes Billions More From List of Savings</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>For the second time in a week, Elon Musk’s government overhaul effort updated its “wall of receipts” to remove mistakes that inflated its success.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/DOGE-ERRORS-kzgl/DOGE-ERRORS-kzgl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>The ‘Disgraceful Display’ in the Oval Office</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Readers react to the heated meeting between Presidents Trump and Zelensky. Also: Donald Trump’s lies; money for lab scientists; The New Yorker at 100.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/28DC-PREXY-top/28DC-PREXY-A1-ptwg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ACC board to meet Tuesday regarding disputes with Clemson, Florida State</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>If an agreement is reached, it ends more than 14 months of nine-figure litigation between the conference and two of its marquee programs.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Magnus Carlsen's controversial jeans sell for $36,100 at auction</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>The jeans Magnus Carlsen wore when he withdrew from the World Rapid and Blitz Championships in 2024 have been sold in an eBay auction.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Zelensky Turns to Diplomacy in a War With ‘a Long Way to Go’</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>After a startling clash with President Trump, who has echoed the Kremlin view of the war, Ukraine’s leader is trying to shore up European support and smooth over relations with Washington.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03ukraine-zelensky-01-vmlp/03ukraine-zelensky-01-vmlp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Kroger C.E.O. Resigns After Board’s Personal Conduct Investigation</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The grocery chain said it had investigated its chief executive, Rodney McMullen, and found that his actions were “inconsistent” with its business ethics policy.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03xp-kroger-ceo1-hgwm/03xp-kroger-ceo1-hgwm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>College baseball week in review: Oklahoma keeps rolling, Clemson sweeps South Carolina</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Unbeaten Tennessee looks the part once again. Portland pitcher reaches perfection. Kansas is 10-1!</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Read the Memo</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Nicholas Enrich, acting assistant administrator for global health at U.S.A.I.D., spelled out projections for human health following cuts to foreign aid. Mr. Enrich was placed on administrative leave over the weekend.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/doc-99c7a88b-2940-4c9d-9395-9-promo/doc-99c7a88b-2940-4c9d-9395-9-promo-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Vanderbilt’s Clark Lea is a DC no more, just head coach as highly anticipated season beckons</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>The Commodores made massive strides on defense in 2024, but Lea is handing over the DC role to Steve Gregory.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Trump and the Press</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>The president wants journalists to parrot his views and face consequences if they don’t.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03themorning-nl-pzvq/03themorning-nl-pzvq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Trump Turns Up Trade Pressure on China After Beijing Fails to Come Running</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>China is still cautiously trying to figure out what Trump wants. The president has threatened big tariffs in response to the inaction.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02dc-china-trade1-wjkl/02dc-china-trade1-wjkl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>What I heard at the NFL combine: Bengals in pressure cooker with Higgins, Chase, Hendrickson</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The Bengals are in a position to prove the league wrong in how they handle their stars in the coming months.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Trump Will Impose 25% Tariffs on Canada and Mexico</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>President Trump said he would impose levies on America’s largest trading partners Tuesday. Industries are preparing for the worst.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-tariffs-wjbh/03dc-tariffs-wjbh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Economic Upheaval and Plans to Retaliate: Canada Braces for Tariffs</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>President Trump’s plan to apply 25 percent tariffs on Canadian exports is set to start on Tuesday. They would deal a brutal blow to Canada’s economy.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03canada-tariffs-explainer-gkfb/03canada-tariffs-explainer-gkfb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>What Man’s Man Politics Is Doing to America</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>And why Democrats shouldn’t try to “out-cowboy” Donald Trump.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/opinion/03opinions-healy-cottom/03opinions-healy-cottom-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>A Scenic California Rail Line Sits on an Eroding Cliff. Where Should the Tracks Go?</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>In the city of Del Mar, near San Diego, most agree the train tracks must move off eroding bluffs. But debate over its new route has stalled the project while climate change raises the risks.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/00delmar-jmfb/00delmar-jmfb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>For Greenland’s Minerals, the Harsh Reality Behind the Glittering Promise</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>There is excitement about the potentially lucrative resources scattered around the island, especially the rare earths. But extreme weather, fired-up environmentalists and other factors have tempered hopes of a bonanza.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/25/multimedia/00Greenland-minerals-qtmf/00Greenland-minerals-qtmf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>After the Fires, Los Angeles Becomes Even Tougher for New Buyers</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>With fierce competition and less inventory, potential buyers are bracing for a fight or wondering if they will have to leave the city to become homeowners.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03firsttimebuyers-losangeles-cfkz/03firsttimebuyers-losangeles-cfkz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Can the Media’s Right to Pursue the Powerful Survive Trump’s Second Term?</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>New York Times v. Sullivan and other landmark Supreme Court decisions protect the press’s ability to investigate public figures. But a growing right-wing movement seeks to overturn them.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/magazine/09mag-Sullivan-top/09mag-Sullivan-top-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Keeper of a Painter’s Secrets? Or a Fantasist and a Trickster?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Barry Joule says his friend Francis Bacon gave him a trove of sketches and paintings. Some experts aren’t so sure.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/01/29/multimedia/00francis-bacon-001/00bacon-secret-hqwj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>A Thousand Snipers in the Sky: The New War in Ukraine</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Drones have changed the war in Ukraine, with soldiers adapting off-the-shelf models and swarming the front lines.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/19/multimedia/2025-02-07-ukraine-drones-index/2025-02-07-ukraine-drones-index-threeByTwoSmallAt2X-v4.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>'He sees things quickly, so he wants to play quickly': Jamie Donley is thriving at Leyton Orient</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Donley has built a reputation for stunning passes and even more spectacular strikes since his summer loan move from Spurs</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Access all areas: Wigan Warriors in Vegas - banana and honey sandwiches, meditation and puzzled dog walkers</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sin City has been swamped by rugby league players and fans - The Athletic was granted behind the scenes access for the world champions' trip</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Wild insider: Bill Guerin on Nyquist trade, Khusnutdinov demotion and trade deadline plan</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Guerin has traded away five picks so far this season and the Wild are tight to the cap. Is anything else in store?</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Taijuan Walker, reaching 94 mph, is one of the interesting characters in Phillies spring training</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>There is enough evidence, even halfway through spring training, to suggest that Walker is a different pitcher from last year's poor version.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>We could see a new box office low for a best picture winner.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>“Anora” and several other contenders would qualify. “The Hurt Locker,” which won Hollywood’s top prize in 2010, currently holds that distinction.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02box-office-oscars-zkqh/02box-office-oscars-zkqh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Problems With New California Bar Exam Enrage Test Takers and Cloud Their Futures</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Many aspiring lawyers could not access the test and cited delays or other issues. A lawmaker has called for an investigation.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/us/nat-bar-exam-1/nat-bar-exam-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>A Tough Start for Greenpeace in Court Fight With Pipeline Giant</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>The environmental group, battling a multimillion-dollar lawsuit over protests against the Dakota Access Pipeline, told the North Dakota Supreme Court it can’t get a fair trial.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03cli-greenpeace-trial-fvbc/03cli-greenpeace-trial-fvbc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Can the Media’s Right to Pursue the Powerful Survive Trump’s Second Term?</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>New York Times v. Sullivan and other landmark Supreme Court decisions protect the press’s ability to investigate public figures. But a growing right-wing movement seeks to overturn them.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/magazine/09mag-Sullivan-top/09mag-Sullivan-top-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Keeper of a Painter’s Secrets? Or a Fantasist and a Trickster?</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Barry Joule says his friend Francis Bacon gave him a trove of sketches and paintings. Some experts aren’t so sure.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/01/29/multimedia/00francis-bacon-001/00bacon-secret-hqwj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>A Thousand Snipers in the Sky: The New War in Ukraine</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Drones have changed the war in Ukraine, with soldiers adapting off-the-shelf models and swarming the front lines.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/19/multimedia/2025-02-07-ukraine-drones-index/2025-02-07-ukraine-drones-index-threeByTwoSmallAt2X-v4.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>'He sees things quickly, so he wants to play quickly': Jamie Donley is thriving at Leyton Orient</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Donley has built a reputation for stunning passes and even more spectacular strikes since his summer loan move from Spurs</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Access all areas: Wigan Warriors in Vegas - banana and honey sandwiches, meditation and puzzled dog walkers</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sin City has been swamped by rugby league players and fans - The Athletic was granted behind the scenes access for the world champions' trip</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Wild insider: Bill Guerin on Nyquist trade, Khusnutdinov demotion and trade deadline plan</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Guerin has traded away five picks so far this season and the Wild are tight to the cap. Is anything else in store?</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Taijuan Walker, reaching 94 mph, is one of the interesting characters in Phillies spring training</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>There is enough evidence, even halfway through spring training, to suggest that Walker is a different pitcher from last year's poor version.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>We could see a new box office low for a best picture winner.</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>“Anora” and several other contenders would qualify. “The Hurt Locker,” which won Hollywood’s top prize in 2010, currently holds that distinction.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02box-office-oscars-zkqh/02box-office-oscars-zkqh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Problems With New California Bar Exam Enrage Test Takers and Cloud Their Futures</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Many aspiring lawyers could not access the test and cited delays or other issues. A lawmaker has called for an investigation.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/us/nat-bar-exam-1/nat-bar-exam-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>A Tough Start for Greenpeace in Court Fight With Pipeline Giant</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>The environmental group, battling a multimillion-dollar lawsuit over protests against the Dakota Access Pipeline, told the North Dakota Supreme Court it can’t get a fair trial.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03cli-greenpeace-trial-fvbc/03cli-greenpeace-trial-fvbc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>The many faces of Matheus Cunha, the hero and villain of Wolves' season</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>The talented Brazilian has many character traits - some endearing, some inspiring, some infuriating</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>An Underrated Nominee</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Plus, news about David Leonhardt and the Morning.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01themorning-nl/01themorning-nl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>The Sunday Read: ‘The Cryptocurrency Scam That Turned a Small Town Against Itself’</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>How did a successful, financially sophisticated banker gamble his community’s money away?</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/23/magazine/02daily-sundayread-cryptoscam-image/23mag-cryptoscam-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Federal Judges Are Ordering Trump to Slow Down. Will He Listen?</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Inside the nation’s courthouses, administration lawyers are now facing 100 lawsuits. Outside, the White House is mounting political attacks on judges who rule against it.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02NAT-TRUMP-LEGALCHALLENGES-mpvw/02NAT-TRUMP-LEGALCHALLENGES-mpvw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Horticulturists, Biologists, Engineers: Federal ‘Bloat’ or Valued Experts?</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>President Trump’s effort to remake the government is a direct challenge to a decades-long effort to build a civil service stocked with experts. Critics say it will backfire.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-brain-drain-1-cvtl/00dc-brain-drain-1-cvtl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>She’s a Foot Soldier in America’s Losing War With Chronic Disease</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>In places like Mingo County, W.Va., where working-age people are dying at record rates, a nurse learns what it takes to make America healthy.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02chronic-disease-promo-1/02chronic-disease-promo-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Professor, Scrutinized for Ties to China, Sues to Get His Job Back</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Feng Tao, who was tenured at the University of Kansas, was cleared of charges brought under a discontinued Trump program aimed at Chinese spying.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/24/multimedia/NAT-CHINESE-SCIENTISTS-01-vmtw/NAT-CHINESE-SCIENTISTS-01-vmtw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>As Musk Consolidates Power in the U.S., His Mother Is in Demand Overseas</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Maye Musk, a model and a public speaker, recently headlined a government conference in Dubai and endorsed a slew of products in China.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/26/multimedia/00musk-mother-01-lhjk/00musk-mother-01-lhjk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Chimamanda Ngozi Adichie Aims to ‘Write a Wrong’ in ‘Dream Count’</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>In her first novel since “Americanah,” she draws on a real-life assault as she follows the lives of three Nigerian women and one of their former housekeepers.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/books/review/04adichie-review1/04adichie-review1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>‘Full on Fight Club’: How Trump Is Crushing U.S. Climate Policy</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>President Trump has quickly transformed America’s approach to the environment, withholding funds and stretching the limits of presidential power.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00cli-demolish-01-cjzm/00cli-demolish-01-cjzm-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Cuomo Enters N.Y.C. Mayor’s Race, Upending Contest to Unseat Adams</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>The comeback attempt, three years after Andrew M. Cuomo resigned as governor in scandal, will test New Yorkers’ appetite for second chances, and change.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00hfo-cuomo-mayor-01-vtgj/00hfo-cuomo-mayor-01-vtgj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Judge Blocks Trump’s Plan to End Funds for Trans Youth Health Providers in 4 States</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>The states — Washington, Oregon, Minnesota and Colorado — had sued to block President Trump’s plan to withhold federal funds from hospitals that offer transgender treatment to people under 19.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00nat-trans-health-tghw/00nat-trans-health-tghw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>We Need to Talk About the Lying</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Trump promised and promised and promised.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/28bouie-newsletter-lqjc/28bouie-newsletter-lqjc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Shocked by Trump, Zelensky and Ukraine Try to Forge a Path Forward</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>After President Trump’s rebukes, President Volodymyr Zelensky tried to repair the relationship with his counterpart while also reaching out to European allies.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01ukraine-fallout-01-cklm/01ukraine-fallout-01-cklm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>The Dark Heart of Trump’s Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>10 Columnists and Writers Rate What Mattered in Trump’s First Full Month</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>From DOGE to Ukraine to the Eric Adams case, these are the most consequential actions by the new administration so far.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/opinion/01trump-report-card/01trump-report-card-threeByTwoSmallAt2X-v4.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Canada-U.S. Relations Continue to Reach Lows Over Tariffs and Annexation Threats</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>President Trump said he would impose potentially devastating tariffs on Tuesday, inspiring patriotism in Canada.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01canadaletter-sam-lkgc/01canadaletter-sam-lkgc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Gazans Mark a Somber Ramadan Amid the Rubble</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>“This Ramadan is nothing like the ones before,” said one resident as the holy fasting month for Muslims began. “The war has drained it of meaning.”</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01gaza-ramadan-mvcl/01gaza-ramadan-mvcl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Governor Maura Healey Wants Democrats to Put Up a Fight</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>The Massachusetts leader, whose influence goes well beyond her state, discusses how the Democratic Party can pick its battles and rebuild its brand.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/magazine/09mag-interview-healey-04/09mag-interview-healey-04-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>The Best Movies and TV Shows Coming to Disney+, Amazon, Max, Apple TV+ and More in March</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>“Anora” and “Happy Face” arrive, and “‘Dark Winds,” “The Wheel of Time,” “The Righteous Gemstones” and more return.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01streaming-new-march-wheel-of-time-hmvp/01streaming-new-march-wheel-of-time-hmvp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Canada Curbed Illegal Migration to the U.S. Now People Are Heading to Canada.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The Canadian government has reinforced border operations to stop migrants going to the United States, a major Trump complaint. But early data shows people are, instead, starting to flee the United States for Canada.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01canada-us-border-02-hgmt/01canada-us-border-02-hgmt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>The ‘Saltburn’ Bathtub Finds a New Home</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>The tub from a steamy scene in the dark thriller is now on display inside a passionate fan’s house.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01SALTBURN-TUB-01-blgt/01SALTBURN-TUB-01-blgt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/noticias.xlsx
+++ b/noticias.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,3151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Título</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Número de Ocorrência</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Monetário</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kyle Busch inches closer to snapping career-long NASCAR Cup Series winless streak</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"We're all busting our butts," Kyle Busch says of his and team's effort to bring an end to the longest Cup Series dry spell of his career.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>When Corporate Rebranding Goes Wrong</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A British investment firm restored most of the vowels to its name after a widely ridiculed revamp that showed the pitfalls of trying to look cool in the digital age.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06xp-rebrand-dfiu/06xp-rebrand-dfiu-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Is Google Search Cooked? + We’re Getting a U.S. Crypto Reserve? + What You’re Vibecoding</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“I think Google realizes that this is a once-in-a-generation chance to reinvent the search experience”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/podcasts/07hardfork-google/07hardfork-google-threeByTwoSmallAt2X-v2.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Whiplash From the White House, and a SpaceX Explosion</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Plus, how to win the lottery.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/07-theheadlines/06dc-tariffs-gbkp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stocks Head for Worst Week in Months as Trade Unease Hangs Over Wall St.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Investors are worried about economic growth and the effects of tariffs on America’s largest trading partners.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07stocks-wlhc/07stocks-wlhc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>As Catholics Gather for Jubilee, Just One Thing Is Missing: Francis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>For the faithful who have descended on Rome for an event that comes every 25 years, the absence of the pope has been especially deeply felt.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/00pope-jubilee-01-fbkl/00pope-jubilee-01-fbkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>As Layoffs Continue, Federal Workers Face Sluggish Job Market</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unemployment is low, but there isn’t much room to move around — especially for those with highly government-specific skills.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/00DC-FEDLABOR-qzpf/00DC-FEDLABOR-qzpf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Step Into the Real-Life Lumon Industries, the Breakout Star of ‘Severance’</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bell Works, the setting of the hit serial for Apple TV+, is now a tourist attraction, drawing fans to the architectural wonder.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07realestate-severance-02-bvwm/07realestate-severance-02-bvwm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bright Lights, Bot City: Having A.I. Plan a Dream Trip to New York</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Artificial intelligence has made trip planning and research much easier and faster, but drill down and double-check everything before you go.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/28/travel/28aibot-roundup-illo/28aibot-roundup-illo-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>China Says It Offers Stability as Trump Sows Chaos. The Reality Is Complicated.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>China’s top foreign affairs official, Wang Yi, cast his country as a force for peace and order even as Beijing provokes its neighbors and fuels trade tensions.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07china-diplo-gtwh/07china-diplo-gtwh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Talks about Ukraine.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06ambriefing-europe-trump-news/06ambriefing-europe-trump-news-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>An Australian Wedding So Nice They Celebrated It … Three Times</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ahead of their civil ceremony, Mishti Rahman and Philip Kanis wanted to pay tribute to their Bangladeshi and Greek cultures, as well as their friends.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/07VOWS-RAHMAN-01-vwfh/07VOWS-RAHMAN-01-vwfh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tariffs by Whim Keep Allies Off Balance, but Do the Same to Markets</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Investors sent stock prices down on Thursday amid the uncertainty over what President Trump’s inconstancy means for the global economy.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06dc-trump-power-topart-gphv/06dc-trump-power-topart-gphv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Debris Rains Down After SpaceX Starship Test Flight</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>While the Starship’s booster successfully returned to the launchpad, the upper-stage spacecraft failed in space and lost several engines and attitude control, tumbling in space.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06starship-launch-01-mcjv/06starship-launch-01-mcjv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Elon Musk Proposes Privatizing Amtrak, Calling Rail Service ‘Sad’</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Amtrak, after investing more than $4 billion in a year to improve its creaky infrastructure and aging fleet, said it expected to make a profit for the first time under President Trump.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06trump-news-amtrak-btfc/06trump-news-amtrak-btfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Breakup of SpaceX’s Starship Rocket Disrupts Florida Airports</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Video showed the upper stage of the most powerful rocket ever built spinning out of control in space, a repeat of an unsuccessful test flight in January that led to debris falling over the Caribbean.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06starship-launch-01-mcjv/06starship-launch-01-mcjv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Friday Briefing: A ‘Watershed Moment’ for Europe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Plus, Bong Joon Ho’s “Mickey 17.”</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/07ambriefing-asia-leaders/07ambriefing-asia-leaders-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Expect more moon landings later this year.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-next-jvlg/06athena-moon-landing-next-jvlg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Will the Shift to Clean Power Continue Under Trump?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Experts say that President Trump may be able to slow the transition away from fossil fuels, but he won’t be able to stop it completely.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06cli-newsletter-Transition-wjkf/06cli-newsletter-Transition-wjkf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>An Unkind Policy for a Nonexistent Problem</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The story of how a gendered word became a universal pronoun says a lot about how language evolves.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/10/opinion/06mcwhorter-newsletter-image/06mcwhorter-newsletter-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Why NASA Is Trying to Go Back to the Moon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>President Trump set the U.S. on a path to sending astronauts back to the lunar surface during his first term. Lately he has expressed more interest in Mars.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-why-lkgb/06athena-moon-landing-why-lkgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>You Asked, We Answered: How The Times Is Reporting on the Trump Administration</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Hundreds of readers asked about our coverage of the president. Times editors and reporters responded to some of the most common questions.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/26/reader-center/trust-trump-coverage-answers/trust-trump-coverage-answers-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Athena is bringing wheels and deals to the moon’s surface.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/science/06athena-moon-landing-rovers/06athena-moon-landing-rovers-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A robot will make a hop, a skip and a jump on the moon’s surface.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/science/06athena-moon-landing-hopper/06athena-moon-landing-hopper-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A Long-Shot Bet to Bypass the Middlemen of Social Media</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Facing the looming threat of A.I. as a competitor, some publishers are considering an alternative to the internet’s all-powerful algorithms.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/00activity-pub-mtfc/00activity-pub-mtfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>‘Doom’ Has Everything, and Nothing</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Anne Imhof’s three-hour spectacle of moody youth at the Armory is sweet sorrow, full of moping and muttering. Still, almost despite itself, it points to true art.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/06doom-imhof-review-01-mqgp/06doom-imhof-review-01-mqgp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hit by ‘Gut Punches,’ Scientists Band Together to Protest Trump</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Stand Up for Science aims to revive a movement that started in 2017, but with an all-new team and a more focused vision.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/HS-DCPROTEST-01-fqzl/HS-DCPROTEST-01-fqzl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Déjà moon? Another spacecraft just landed on the moon on Sunday.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-firefly-jgph/06athena-moon-landing-firefly-jgph-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intuitive Machines’ Athena Lander Is on the Moon, but Its Fate Is Unclear</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>After hours of uncertainty, officials from the Houston company said there are clues that the spacecraft is on its side, which could limit the mission’s scientific accomplishments.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-write-thru/06athena-moon-landing-write-thru-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Who’s Got Trump’s Ear on Tariffs?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Corporate leaders and investors continue to be caught off guard by the president’s trade policy, especially as deal talks heat up.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06db-lutnick-cmgj/06db-lutnick-cmgj-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Who Paid for Trump’s Transition to Power? The Donors Are Still Unknown.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>President Trump has not made good on a promise to disclose who contributed to his transition effort.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06pol-transition-topart-btmg/06pol-transition-topart-btmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Trump’s Cuts to Federal Work Force Push Out Young Employees</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The loss of early career workers has raised concerns about the impact on the next generation of civil servants.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-youngworkers-01-tlkc/00dc-youngworkers-01-tlkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>How the Biggest Crypto Heist in History Went Down</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The cryptocurrency exchange Bybit lost $1.5 billion to North Korean hackers last month — and it all traced back to an account on a free digital storage service.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/business/00crypto-robbery/00crypto-robbery-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>In One Totem, a Marriage of Materials and Cultures</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Joseph Walsh, an Irish designer, tries something new for the World Expo in Japan.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-walsh-zpmg/09sp-design-walsh-zpmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mirrors That Are Designed to Dazzle</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sometimes, the art of making mirrors has little to do with reflection.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-mirrors-03-qmcb/09sp-design-mirrors-03-qmcb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Do We Age Steadily, or in Bursts?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>New technologies are giving scientists a better understanding of how the process actually works.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/well/06WELL-NON-LINEAR-AGING/06WELL-NON-LINEAR-AGING-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Europe Races to Craft a Trump-Era Plan for Ukraine and Defense</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>European leaders are gathering in Brussels to discuss how to support Ukraine and fend more for themselves on defense.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06europe-summit-fglm/06europe-summit-fglm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>This Trump Speech Was the Ultimate Loyalty Test</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Something has ruptured in American politics.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/opinion/05eks-trump-speech/05eks-trump-speech-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Discord in Early Talks With Bankers for Potential I.P.O.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The app has become a mainstay of the video game community and young internet users.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05BIZ-DISCORD-jmgb/05BIZ-DISCORD-jmgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Stocks rise after tariffs on car imports are delayed.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The S&amp;P 500 jumped more than 1 percent on Wednesday, after two days of declines. Shares of automakers rallied.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Far-Right Israeli Minister Visits Washington After Years of Being Shunned</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bezalel Smotrich, the Israeli finance minister, had drawn rebukes from the Biden administration for his opposition to a cease-fire in Gaza and his support for Jewish settlers in the West Bank.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05israel-dc-financial-jvpc/05israel-dc-financial-jvpc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Most Contaminated U.S. Nuclear Site Is Set to Be the Largest Solar Farm</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Plans to transform Hanford, which was integral to the nation’s nuclear arsenal after World War II, had just begun inching forward when President Trump started his second term.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/21/multimedia/00Hanford-01-wjgt/00Hanford-01-wjgt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Trove of Ancient Axes Shows Early Humans Made Tools From Bones</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Deep in a trench in Tanzania, researchers found dozens of tools crafted from animal bones some 1.5 million years old.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05SCI-TOOLS-promo-fcgm/05SCI-TOOLS-promo-fcgm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Max Scherzer has many more thoughts on robot umps: 'What problem are we really solving?'</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>If it’s challenge-system feedback baseball wants this spring, then I think we found just the man to supply it.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Trump Officials Take Down List of Federal Properties for Possible Sale</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The Trump administration originally identified more than 440 federal properties that could be sold, which included the headquarters of the F.B.I. and Justice Department.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05dc-gsa-vtkl/05dc-gsa-vtkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tesla Sales Slump in Europe as Anger Toward Elon Musk Grows</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>February numbers show the U.S. electric-car maker is struggling to attract buyers in the region. Mr. Musk’s politics aren’t helping.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-tesla-sales-ptzc/05biz-tesla-sales-ptzc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>San Diego FC's CEO can turn to a past playbook to fix a new fan problem</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>After navigating an early crisis brought on by fans in LAFC's expansion season, Tom Penn finds himself in similar waters in San Diego.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michael McDowell on perseverance, life balance and racing in his prime: 12 Questions</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Michael McDowell talks about his journey in racing, what he's learned about work-life balance and much more in the latest 12 Questions.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Turing Award Goes to 2 Pioneers of Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Andrew Barto and Richard Sutton developed reinforcement learning, a technique vital to chatbots like ChatGPT.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/business/05BIZ-TURING-1/05BIZ-TURING-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Concert Ticket Prices Are Soaring, and Busting Gen Z’s Budgets</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>How can 20-somethings afford the high cost of seeing their favorite artists’ live shows? Some save; some go into debt.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00GenZ-Concerts-01-lwph/00GenZ-Concerts-01-lwph-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The Wizard of Vinyl Is in Kansas</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Chad Kassem is on a mission — saving listeners “from bad sound” — at the rural factory where he pores over LPs from some of music’s most important artists.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09KANSAS-VINYL-PROMO-qmkc/09KANSAS-VINYL-PROMO-qmkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Let’s Hear It for the Ladies Who Lathe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>As contemporary woodworking loses its macho edge, it gains a whole new dimension.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-wood-02-mwzl/09sp-design-wood-02-mwzl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>What Is a ‘Woman’s Watch’ in 2025?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The category, a significant part of the Swiss watch export total, has undergone technical and aesthetic evolutions. So is a definition even possible these days?</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06sp-watches-women-inyt-04-mlqf/06sp-watches-women-inyt-04-mlqf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Bowden’s 2025 MLB report card: Offseason grades, takeaways, predictions for all 30 teams</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>I handed out six A's (including A-pluses and A-minuses), 12 B's, eight C's, three D's, and one F. Where did your team end up?</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Judge Denies Musk’s Request to Block OpenAI’s For-Profit Plan</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>The court said that Elon Musk could proceed with other parts of a lawsuit he brought against OpenAI last year.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-musk-tclz/05biz-musk-tclz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Full Transcript of President Trump’s Speech to Congress</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>In a speech to Congress in his first weeks in office, the president laid out his vision to remake U.S. policy on the military, trade, immigration and foreign aid.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04dc-transcript-wvkg/04dc-transcript-wvkg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Xi’s Message: The Economy Is Strong, and China Won’t Back Down</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>As Chinese leaders meet in Beijing, they are striking a confident posture despite serious challenges to the economy and growing pressure from the United States.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05china-congress-kcbm/05china-congress-kcbm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fired CDC Scientists Are Reinstated for Now</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The fellows had been let go as part of the push to cut federal probationary employees that caused thousands of scientists from the C.D.C. and other agencies to lose their jobs.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04trump-news-cdc1-tjhl/04trump-news-cdc1-tjhl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Lawsuit Over Zelle Scams Is Dropped by Consumer Bureau</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A spokeswoman for the payment app’s parent company said the lawsuit against three large banks was “without merit, and legally and factually flawed.”</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-cfpb-zelle-jwcz/04biz-cfpb-zelle-jwcz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>It’s Hard to Believe How Cool These Dresses Are</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Illuminated, kaleidoscopic dresses at Anrealage made the case that we’re all walking billboards.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04SCREEN-DRESSES-mlfw/04SCREEN-DRESSES-mlfw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A Straightforward Climate Fix Hits Another Setback</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cutting down emissions of planet-warming methane from oil and gas production was supposed to be relatively simple. It hasn’t worked that way.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/climate/04cli-newsletter-methane/04cli-newsletter-methane-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Europe Tries to Boost Military Spending as America Realigns</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The European Commission’s president unveiled a sweeping plan to help Ukraine and boost defense spending, but it won’t be easy.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04europe-rearm-1-tjlq/04europe-rearm-1-tjlq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Trump’s Sharp Shift on Ukraine and Russia</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Readers react to news about Russia and Ukraine. Also: A “horrified” expat and a “saddened” Canadian; the new tariffs; research cuts.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-prexy-topart-vqzw/03dc-prexy-topart-vqzw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Companies in Europe Face Squeeze in U.S.-China Trade War</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Some European executives see rising trade tensions as a potential opportunity, but they are watching warily for more moves in Washington.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04mwc-2-jtpk/04mwc-2-jtpk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>What's the Cardinals' direction this year? Spring training mailbag, Part 1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>So far, the Cardinals' 2025 roster is looking pretty similar to 2024's. Are they still "planning for the future"?</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The Government Knows A.G.I. Is Coming</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The Biden administration’s A.I. adviser Ben Buchanan discusses how the U.S. government is preparing for artificial general intelligence — and all the challenges that remain.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/opinion/04eks-buchanan/04eks-buchanan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The Government Knows A.G.I. is Coming</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>The Biden administration’s A.I. adviser Ben Buchanan discusses how the U.S. government is preparing for artificial general intelligence — and all the challenges that remain.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/opinion/04eks-buchanan/04eks-buchanan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>How Covid Remade America</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>It feels as if the pandemic is behind us. But we’re living in the world it made.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/opinion/covid-anniversary-cinemagraph23-still/covid-anniversary-cinemagraph23-still-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>After the Apocalypse, Will We Decamp to a Suburb or a High-Rise?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>“Paradise” and “Silo” have opposing takes on the future of urban organization, echoing the debate over America’s housing shortage today.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/00Paradise-paradise-sub-kzmf/00Paradise-paradise-sub-kzmf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Can a Finnish Sauna Improve Society?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Contemporary sweat baths reflect the country’s architectural past — and propose a future in which simple, sustainable buildings can still be sublime.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/t-magazine/04tmag-saunas-slide-DNIZ/04tmag-saunas-slide-DNIZ-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Showing Courage in Ukraine With Handfuls of Clay</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Founded seven years ago in Kyiv, GORN Ceramics has become an object lesson in survival.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-ukraine-02-fzvm/09sp-design-ukraine-02-fzvm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Loving a House From Afar, and Then Tearing it Down</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A Pennsylvania couple left tech jobs to devote their time to renovating and selling homes. This dream project, however, won’t be put back on the market.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04location-brynmawr-07-gtpq/04location-brynmawr-07-gtpq-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>China Retaliates Against Trump Tariffs as Superpower Trade War Escalates</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Beijing imposed broad tariffs on imports of American food and said 15 U.S. companies could no longer buy from China without special permission.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04Biz-China-Tariffs-tzlv/04Biz-China-Tariffs-tzlv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Germany Needs to Get Its Act Together. Under Him, It Won’t.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Friedrich Merz, almost certain to be the country’s next chancellor, is yesterday’s man.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/04hermsmeier-mzqb/04hermsmeier-mzqb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LinkedIn, volunteers, and reliant on goodwill. Scouting in women's football's lower leagues remains embryonic</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>The WSL has welcomed its first $1million transfer, but the women’s game remains embryonic elsewhere.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Trump’s Tariffs on Canada, Mexico and China Snap Into Effect</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>President Trump imposed hefty tariffs on the United States’ largest trading partners on Tuesday, roiling global relations and sending shock waves through industries that depend on trade.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-dc-tariffs-01-wqpb/04biz-dc-tariffs-01-wqpb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Senate Confirms Linda McMahon as Education Secretary</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ms. McMahon, who has little experience in private or public schools, will take over a department that President Trump has already begun to dismantle.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-mcmahon-fqgp/03dc-mcmahon-fqgp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Trump Said Tariffs Are Coming</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Also, Cuomo entered the New York mayoral race as a front-runner. Here’s the latest at the end of Monday.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03evening-trade/04ambriefing-asia-trade-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SpaceX Scrubs 8th Starship Rocket Test Flight</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>The company has made changes to the vehicle, part of which blew up over the Caribbean in January during the seventh test flight. An issue during the countdown halted Monday’s launch.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03starship-launch-pmgq/03starship-launch-pmgq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Social Security and Sex Robots: Musk Veers Off Script With Joe Rogan</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Elon Musk’s three-hour interview with “The Joe Rogan Experience” offered a window into his worldview that was by turns crude and contradictory.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/us/politics/03pol-on-politics-newsletter-rogan/03pol-on-politics-newsletter-rogan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Stocks Post Biggest Loss of the Year on Trump’s Tariff Plans</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>The S&amp;P 500 fell 1.8 percent on Monday after President Trump doubled down on plans to impose 25 percent tariffs on Canada and Mexico starting Tuesday.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Dozens of Government Technology Specialists Fired</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>The employees, who worked at the General Services Administration’s 18F unit, fixed technical problems and built products aimed at increasing efficiency for various federal agencies.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/us/politics/03trump-news-18f/03trump-news-18f-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>9 Stylish Products for Your Home</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A sampling of recent home goods from veteran craftspeople.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-products-vjfb/09sp-design-products-vjfb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>A.I. Start-Up Anthropic Closes Deal That Values It at $61.5 Billion</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The announcement follows new fund-raising efforts from rivals like OpenAI, which is set to close a deal that values the company at $300 billion, and Elon Musk’s xAI.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03BIZ-ANTHROPIC-hwgq/03BIZ-ANTHROPIC-hwgq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>The ‘Disgraceful Display’ in the Oval Office</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Readers react to the heated meeting between Presidents Trump and Zelensky. Also: Donald Trump’s lies; money for lab scientists; The New Yorker at 100.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/28DC-PREXY-top/28DC-PREXY-A1-ptwg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TSMC, the Chip Giant, Is to Spend $100 Billion in U.S. Over the Next 4 Years</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>The investment plan, announced at the White House, was made as the Trump administration pushes to bring chip making back to the United States.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03biz-tsmc-sub-vzgl-wpzq/03biz-tsmc-sub-vzgl-wpzq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Where to Stream the 2025 Oscar Winners, From ‘Anora’ to ‘Flow’</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Most of the awarded films, including the winner of best picture, can be watched at home. Here’s a guide to catch up.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/anora-winner1-kjfc/anora-winner1-kjfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Read the Memo</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Nicholas Enrich, acting assistant administrator for global health at U.S.A.I.D., spelled out projections for human health following cuts to foreign aid. Mr. Enrich was placed on administrative leave over the weekend.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/doc-99c7a88b-2940-4c9d-9395-9-promo/doc-99c7a88b-2940-4c9d-9395-9-promo-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Trump Faces Blowback Over Plans for Crypto Reserve</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Digital assets like Bitcoin rallied on the president’s backing for a strategic holding, but even some conservatives and industry backers disapproved.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03db-newsletter-trumpbtc-zgkv/03db-newsletter-trumpbtc-zgkv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Trump Turns Up Trade Pressure on China After Beijing Fails to Come Running</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>China is still cautiously trying to figure out what Trump wants. The president has threatened big tariffs in response to the inaction.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02dc-china-trade1-wjkl/02dc-china-trade1-wjkl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>What Big-Business Leaders, Including Democrats, Say Privately About Trump</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Behind closed doors, many top executives voice support for the new administration.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/28rattner-zcwt/28rattner-zcwt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>A Thousand Snipers in the Sky: The New War in Ukraine</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Drones have changed the war in Ukraine, with soldiers adapting off-the-shelf models and swarming the front lines.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/19/multimedia/2025-02-07-ukraine-drones-index/2025-02-07-ukraine-drones-index-threeByTwoSmallAt2X-v4.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>How VAR disrupts Premier League betting and how to get ahead of that</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Julia Ranney explores the effects of Video Assistant Refereeing (VAR) technology on modern-day betting.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Problems With New California Bar Exam Enrage Test Takers and Cloud Their Futures</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Many aspiring lawyers could not access the test and cited delays or other issues. A lawmaker has called for an investigation.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/us/nat-bar-exam-1/nat-bar-exam-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DOGE Claims Credit for Killing Contracts That Were Already Dead</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Elon Musk’s group claimed credit for canceling procurement agreements that had been completed years earlier, the latest in a string of public errors on its site.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-doge-errors-kzhc/00dc-doge-errors-kzhc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Horticulturists, Biologists, Engineers: Federal ‘Bloat’ or Valued Experts?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>President Trump’s effort to remake the government is a direct challenge to a decades-long effort to build a civil service stocked with experts. Critics say it will backfire.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-brain-drain-1-cvtl/00dc-brain-drain-1-cvtl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Professor, Scrutinized for Ties to China, Sues to Get His Job Back</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Feng Tao, who was tenured at the University of Kansas, was cleared of charges brought under a discontinued Trump program aimed at Chinese spying.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/24/multimedia/NAT-CHINESE-SCIENTISTS-01-vmtw/NAT-CHINESE-SCIENTISTS-01-vmtw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>320 Years Before the Muppets, the English Took Manhattan</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>In “Taking Manhattan,” Russell Shorto pays close attention to the darker aspects of colonial life on the island at the center of the world.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04shorto1-jfmg/04shorto1-jfmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>His Pitch to Save His Career: A Podcast About His Dead Best Friend</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>In Jeremy Gordon’s novel, “See Friendship,” a journalist reinvestigates his past, only to discover the story he was told about his friend’s death wasn’t true.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/books/review/04Gordon-review-sub/04Gordon-review-sub-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>‘Full on Fight Club’: How Trump Is Crushing U.S. Climate Policy</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>President Trump has quickly transformed America’s approach to the environment, withholding funds and stretching the limits of presidential power.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00cli-demolish-01-cjzm/00cli-demolish-01-cjzm-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Innovative content, Son and the king: How Tottenham became the biggest English club on TikTok</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Spurs have the most followers on the site of any Premier League club and it's down to strategy, eclectic posts and a South Korean superstar</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>‘Moon Dust on Our Boots’: Texas Company’s Blue Ghost Lands on Lunar Surface</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Firefly Aerospace’s robotic vehicle became the second privately built spacecraft to make a soft landing on the moon. It could soon be joined by two more private lunar landers.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/01/multimedia/01blue-ghost-landing-kwvf/01blue-ghost-landing-kwvf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hazel N. Dukes, Longtime Civil Rights Stalwart, Dies at 92</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>She was president of the national N.A.A.C.P. in the early 1990s and headed the organization’s New York State Conference from 1977 until her death.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/01Dukes--bmcp/01Dukes--bmcp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Explained: Why a VAR review took eight minutes on first weekend of new technology</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>It was supposed to be the innovation that made offside decisions almost instantaneous.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Trump Relaxes Limits on Counterterrorism Strikes Outside Conventional War Zones</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>The president has rescinded a Biden-era system that required high-level approval for certain drone strikes and commando raids, reverting to a more permissive system.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01dc-drone-predator/01dc-drone-predator-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Norway to keep VAR despite pro clubs voting to scrap system</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>In January, the 32 teams from Norway's top two divisions voted 19-13 in favour of discontinuing the use of VAR "as soon as possible".</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Goalkeeper time-wasting will lead to corners from 2025-26</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Law 12.2 currently says goalkeepers can only hold onto the ball for six seconds but it has not been properly applied for years.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hair Transplants and the New Male Vanity</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Maximal transparency is fine, but can’t anybody age naturally anymore?</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/opinion/01Grose-newsletter/01Grose-newsletter-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Cubs' Matthew Boyd isn't reinventing himself. He's doubling down on who he is</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Entering his 11th season in the big leagues, there's reason to believe Boyd's best years are ahead of him.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>The Dark Heart of Trump’s Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>The Dark Heart of Trump’s Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Cuts to National Weather Service Leave Forecasters Reeling</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>“Lives are being put in danger,” one meteorologist warned, as some experts feared the cuts will harm public safety.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01weatherreax-noaa-jgcq/01weatherreax-noaa-jgcq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Why Do S.U.V.s Look Like Trucks Again?</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>For decades, carlike curves were in. Now, buyers are interested in sport utility vehicles that feature right-angles and off-road cred.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/00SUV-1-zlmc/00SUV-1-zlmc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Inside the Democratic Disaster That Didn’t Happen in November</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>The party’s storehouse of everything it knows about American voters required an extraordinary intervention to keep it running, people involved said. A meltdown could have crippled its campaigns nationwide.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/27/multimedia/dems-data10-gjhv/dems-data10-gjhv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/noticias.xlsx
+++ b/noticias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kyle Busch inches closer to snapping career-long NASCAR Cup Series winless streak</t>
+          <t>Tesla Shares Plunge as Musk’s Political Role Grows More Divisive</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"We're all busting our butts," Kyle Busch says of his and team's effort to bring an end to the longest Cup Series dry spell of his career.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>The automaker’s shares soared after Election Day as Elon Musk took a high-profile role as a Trump adviser. Now those gains have evaporated.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/10/multimedia/10tesla-stock-gzlf/10tesla-stock-gzlf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -492,22 +496,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>When Corporate Rebranding Goes Wrong</t>
+          <t>The Quest for A.I. ‘Scientific Superintelligence’</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A British investment firm restored most of the vowels to its name after a widely ridiculed revamp that showed the pitfalls of trying to look cool in the digital age.</t>
+          <t>An ambitious start-up embodies new optimism that artificial intelligence can turbocharge scientific discovery.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06xp-rebrand-dfiu/06xp-rebrand-dfiu-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/02/business/AI-LAB-COMBO-VIDEO-1-cover/AI-LAB-COMBO-VIDEO-1--threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -520,22 +524,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Is Google Search Cooked? + We’re Getting a U.S. Crypto Reserve? + What You’re Vibecoding</t>
+          <t>Trump’s Call to Scrap ‘Horrible’ Chip Program Spreads Panic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>“I think Google realizes that this is a once-in-a-generation chance to reinvent the search experience”</t>
+          <t>The president’s attack on the key tenet of the Biden administration’s industrial policy has set off concerns that he may claw back its funding.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/07/podcasts/07hardfork-google/07hardfork-google-threeByTwoSmallAt2X-v2.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/11/multimedia/10biz-chips-act-zqmg/10biz-chips-act-zqmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -548,22 +552,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Whiplash From the White House, and a SpaceX Explosion</t>
+          <t>Think You Understand Your Dog? Think Again.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Plus, how to win the lottery.</t>
+          <t>People interpret a dog’s emotions based on its situation and have “a big blind spot” for the actual animal, a new study found.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/07-theheadlines/06dc-tariffs-gbkp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/10/multimedia/10HS-DOG-EMOTIONS-jtzp/10HS-DOG-EMOTIONS-jtzp-threeByTwoSmallAt2X-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -576,22 +580,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stocks Head for Worst Week in Months as Trade Unease Hangs Over Wall St.</t>
+          <t>Would Trump Risk a Recession?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Investors are worried about economic growth and the effects of tariffs on America’s largest trading partners.</t>
+          <t>The president still believes that his protectionist trade policies will be “great for us” in the long run, but won’t rule out short-term economic pain.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07stocks-wlhc/07stocks-wlhc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/10/multimedia/db10-trump-hglb/db10-trump-hglb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -604,22 +608,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>As Catholics Gather for Jubilee, Just One Thing Is Missing: Francis</t>
+          <t>Stalled Audits and a Skeleton Staff: Inside Trump’s War on the I.R.S.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>For the faithful who have descended on Rome for an event that comes every 25 years, the absence of the pope has been especially deeply felt.</t>
+          <t>President Trump is planning to gut the work force while trying to turn the I.R.S. into a more political agency.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/00pope-jubilee-01-fbkl/00pope-jubilee-01-fbkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/00dc-irs-qkwb/00dc-irs-qkwb-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -632,22 +636,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>As Layoffs Continue, Federal Workers Face Sluggish Job Market</t>
+          <t>What Should I Wear to Work Out?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unemployment is low, but there isn’t much room to move around — especially for those with highly government-specific skills.</t>
+          <t>Every fabric has an environmental cost. Here’s how to make informed choices.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/00DC-FEDLABOR-qzpf/00DC-FEDLABOR-qzpf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/11/climate/00cli-askclimate-workout/00cli-askclimate-workout-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -660,22 +664,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Step Into the Real-Life Lumon Industries, the Breakout Star of ‘Severance’</t>
+          <t>For Patients Needing Transplants, Hope Arrives on Tiny Hooves</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bell Works, the setting of the hit serial for Apple TV+, is now a tourist attraction, drawing fans to the architectural wonder.</t>
+          <t>Some scientists are confident that organs from genetically modified pigs will one day be routinely transplanted into humans. But substantial ethical questions remain.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07realestate-severance-02-bvwm/07realestate-severance-02-bvwm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2024/10/17/multimedia/00pig-kidneys-promo-zlkt/00pig-kidneys-promo-zlkt-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -688,24 +692,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bright Lights, Bot City: Having A.I. Plan a Dream Trip to New York</t>
+          <t>Inside the underground world of fake football shirts</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Artificial intelligence has made trip planning and research much easier and faster, but drill down and double-check everything before you go.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/28/travel/28aibot-roundup-illo/28aibot-roundup-illo-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Premier League clubs' official replica kits have become very expensive but 'buying that fake is far from a victimless crime'</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -716,24 +716,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>China Says It Offers Stability as Trump Sows Chaos. The Reality Is Complicated.</t>
+          <t>Peter Lim, the Singapore billionaire who owns Valencia but hasn't watched them play for 1,500 days</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>China’s top foreign affairs official, Wang Yi, cast his country as a force for peace and order even as Beijing provokes its neighbors and fuels trade tensions.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07china-diplo-gtwh/07china-diplo-gtwh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>The Athletic spoke to more than a dozen people to try to work out who 71-year-old Lim is and why he ever got involved with Valencia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -744,22 +740,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Friday Briefing</t>
+          <t>This Is Who Loses in a Trade War</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Talks about Ukraine.</t>
+          <t>Europe, not Canada, Mexico or China, is most vulnerable to the fallout from Donald Trump’s mercantilist policies.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06ambriefing-europe-trump-news/06ambriefing-europe-trump-news-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/10/opinion/10tambour-image/10tambour-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -772,24 +768,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>An Australian Wedding So Nice They Celebrated It … Three Times</t>
+          <t>MLB commissioner, several owners pressuring Stu Sternberg to sell Rays as buyers eye team</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ahead of their civil ceremony, Mishti Rahman and Philip Kanis wanted to pay tribute to their Bangladeshi and Greek cultures, as well as their friends.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/07VOWS-RAHMAN-01-vwfh/07VOWS-RAHMAN-01-vwfh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Members of the family that owns the San Francisco 49ers are among the groups interested in buying the Rays.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -800,22 +792,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tariffs by Whim Keep Allies Off Balance, but Do the Same to Markets</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025/03/06</t>
-        </is>
-      </c>
+          <t>Wirecutter Doesn’t Recommend Washer-Dryer Combos. I Still Love Mine.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Investors sent stock prices down on Thursday amid the uncertainty over what President Trump’s inconstancy means for the global economy.</t>
+          <t>Many people claim to hate doing laundry, but when called upon, few will actually stand by their beliefs.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06dc-trump-power-topart-gphv/06dc-trump-power-topart-gphv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://cdn.thewirecutter.com/wp-content/media/2025/03/WILI-WASHER-DRYER-COMBO-2048px-3x2-1.jpg?auto=webp&amp;width=2048&amp;crop=3%3A2&amp;quality=75&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -828,20 +816,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Debris Rains Down After SpaceX Starship Test Flight</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>Henley wins Arnold Palmer Invitational, his first PGA Tour win since 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025/03/09</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>While the Starship’s booster successfully returned to the launchpad, the upper-stage spacecraft failed in space and lost several engines and attitude control, tumbling in space.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06starship-launch-01-mcjv/06starship-launch-01-mcjv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Veteran erases three-shot deficit over final five holes, passing Collin Morikawa late for the win.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>0</v>
       </c>
@@ -852,52 +840,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Elon Musk Proposes Privatizing Amtrak, Calling Rail Service ‘Sad’</t>
+          <t>Want to Teach With Our Contests? Ask Your School Librarian for Help.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Amtrak, after investing more than $4 billion in a year to improve its creaky infrastructure and aging fleet, said it expected to make a profit for the first time under President Trump.</t>
+          <t>Here’s how a team of librarians collaborated with teachers to help students enter our Open Letters Contest — and to create their school’s own competition.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06trump-news-amtrak-btfc/06trump-news-amtrak-btfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/learning/05DrusinTopArtLN/05DrusinTopArtLN-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Breakup of SpaceX’s Starship Rocket Disrupts Florida Airports</t>
+          <t>The Briefing: Man United 1 Arsenal 1 - Rice rescue act, Fernandes' brilliance and fan protests</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Video showed the upper stage of the most powerful rocket ever built spinning out of control in space, a repeat of an unsuccessful test flight in January that led to debris falling over the Caribbean.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06starship-launch-01-mcjv/06starship-launch-01-mcjv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Laurie Whitwell, Jordan Campbell and Conor O'Neill analyse the key talking points from Manchester United's draw with Arsenal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>0</v>
       </c>
@@ -908,22 +892,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Friday Briefing: A ‘Watershed Moment’ for Europe</t>
+          <t>David Sellers, Father of the Design-Build Movement, Dies at 86</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Plus, Bong Joon Ho’s “Mickey 17.”</t>
+          <t>He believed that architects could design better buildings if they did the construction themselves. His do-it-yourself approach caught on.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/07ambriefing-asia-leaders/07ambriefing-asia-leaders-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07Sellers--08-gjmt/07Sellers--08-gjmt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -936,18 +920,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Expect more moon landings later this year.</t>
+          <t>Musk’s Tweet-Fueled Bubble May Be About to Burst</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>2025/03/09</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>His greatest achievement is building a financial cult that serves as the engine for his enormous wealth.</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-next-jvlg/06athena-moon-landing-next-jvlg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/10/multimedia/09desai-zkbg/09desai-zkbg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -960,22 +948,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Will the Shift to Clean Power Continue Under Trump?</t>
+          <t>In ‘Dark Winds,’ Things Are About to Get Even Darker</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Experts say that President Trump may be able to slow the transition away from fossil fuels, but he won’t be able to stop it completely.</t>
+          <t>Zahn McClarnon, who plays a Navajo cop in AMC crime drama, talks about the coming third season, which is moodier and more mystical than previous ones.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06cli-newsletter-Transition-wjkf/06cli-newsletter-Transition-wjkf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/11/arts/09darkwinds/09darkwinds-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -988,22 +976,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>An Unkind Policy for a Nonexistent Problem</t>
+          <t>A Hollywood Star With a Secret That Could Have Ended Her Career</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The story of how a gendered word became a universal pronoun says a lot about how language evolves.</t>
+          <t>Merle Oberon was a popular actress who was once nominated for an Oscar. But a fact that she hid from the public threatened to unspool her entire life’s work.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/10/opinion/06mcwhorter-newsletter-image/06mcwhorter-newsletter-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/00merle-oberon-kwbt/00merle-oberon-kwbt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1016,22 +1004,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Why NASA Is Trying to Go Back to the Moon</t>
+          <t>Plan to Return Russian Diplomats to U.S. Poses Espionage Risk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>President Trump set the U.S. on a path to sending astronauts back to the lunar surface during his first term. Lately he has expressed more interest in Mars.</t>
+          <t>The Trump administration is negotiating the return of more Russian diplomats to the United States. Some are likely to be spies.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-why-lkgb/06athena-moon-landing-why-lkgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/00dc-russia-spies-topart-qpvw/00dc-russia-spies-topart-qpvw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1044,22 +1032,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>You Asked, We Answered: How The Times Is Reporting on the Trump Administration</t>
+          <t>There Is a Liberal Answer to the Trump-Musk Wrecking Ball</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hundreds of readers asked about our coverage of the president. Times editors and reporters responded to some of the most common questions.</t>
+          <t>Right-wing populism thrives on scarcity. The answer is abundance. But a politics of abundance will work only if Democrats confront where their approach has failed.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/26/reader-center/trust-trump-coverage-answers/trust-trump-coverage-answers-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/09/opinion/09eks-abundance-excerpt/09eks-abundance-excerpt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1072,18 +1060,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Athena is bringing wheels and deals to the moon’s surface.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025/03/06</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>There is a Liberal Answer to Elon Musk</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Right-wing populism thrives on scarcity. The answer is abundance. But a politics of abundance will work only if Democrats confront where their approach has failed.</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/science/06athena-moon-landing-rovers/06athena-moon-landing-rovers-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/09/opinion/09eks-abundance-excerpt/09eks-abundance-excerpt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1096,18 +1084,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A robot will make a hop, a skip and a jump on the moon’s surface.</t>
+          <t>How to Care for a Loved One With Dementia: 5 Expert Tips</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>2025/03/08</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gene Hackman was cared for by his wife in his final years. Her unexpected death highlights the essential and challenging job of those who care for Alzheimer’s patients.</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/science/06athena-moon-landing-hopper/06athena-moon-landing-hopper-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/08/multimedia/08nat-dementia-tips-sub2-zfkp/08nat-dementia-tips-sub2-zfkp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1120,22 +1112,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A Long-Shot Bet to Bypass the Middlemen of Social Media</t>
+          <t>Science, Politics and Anxiety Mix at Rally Under Lincoln Memorial</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Facing the looming threat of A.I. as a competitor, some publishers are considering an alternative to the internet’s all-powerful algorithms.</t>
+          <t>Thousands of protesters gathered in Washington for Stand Up for Science, a rally in response to President Trump’s federal-funding and job cuts.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/00activity-pub-mtfc/00activity-pub-mtfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/00SCIPROTEST-01-qcgw/00SCIPROTEST-01-qcgw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1148,22 +1140,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>‘Doom’ Has Everything, and Nothing</t>
+          <t>Trump Wants to Kill Carried Interest. Wall Street Will Fight to Keep It.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Anne Imhof’s three-hour spectacle of moody youth at the Armory is sweet sorrow, full of moping and muttering. Still, almost despite itself, it points to true art.</t>
+          <t>President Trump has been trying to eliminate the tax loophole, which benefits Wall Street, but Congressional Republicans may stand in the way.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/07/multimedia/06doom-imhof-review-01-mqgp/06doom-imhof-review-01-mqgp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/08/multimedia/08db-newsletter-vwbc/08db-newsletter-vwbc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1176,26 +1168,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hit by ‘Gut Punches,’ Scientists Band Together to Protest Trump</t>
+          <t>North Korea Says It’s Building a Nuclear-Powered Submarine</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Stand Up for Science aims to revive a movement that started in 2017, but with an all-new team and a more focused vision.</t>
+          <t>The announcement came amid fears that Pyongyang may be receiving crucial military technology from Russia in return for sending troops and weapons for its war against Ukraine.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/HS-DCPROTEST-01-fqzl/HS-DCPROTEST-01-fqzl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/08/multimedia/08nkorea-nuclear-sub-vtqg/08nkorea-nuclear-sub-vtqg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1204,18 +1196,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Déjà moon? Another spacecraft just landed on the moon on Sunday.</t>
+          <t>Musk Doesn’t Understand Why Government Matters</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>2025/03/08</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>If a business fails, it’s not a big deal. When government services break down, people can die.</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-firefly-jgph/06athena-moon-landing-firefly-jgph-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/08/opinion/08musk-image/08musk-image-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1228,24 +1224,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intuitive Machines’ Athena Lander Is on the Moon, but Its Fate Is Unclear</t>
+          <t>Q&amp;A: Mets new assistant pitching coach Desi Druschel is quickly getting a grip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>After hours of uncertainty, officials from the Houston company said there are clues that the spacecraft is on its side, which could limit the mission’s scientific accomplishments.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-write-thru/06athena-moon-landing-write-thru-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Also, notes on pitchers Brandon Sproat, Sean Reid-Foley and Brooks Raley, who are getting advice and new chances.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>0</v>
       </c>
@@ -1256,22 +1248,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Who’s Got Trump’s Ear on Tariffs?</t>
+          <t>How Eric Adams Lost New York</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Corporate leaders and investors continue to be caught off guard by the president’s trade policy, especially as deal talks heat up.</t>
+          <t>He promised law and order. Instead, his scandal-ridden mayoralty became a symbol — and engine — of the city’s chaos.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06db-lutnick-cmgj/06db-lutnick-cmgj-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/23/magazine/23mag-adams-03/23mag-adams-03-threeByTwoSmallAt2X-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1284,22 +1276,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Who Paid for Trump’s Transition to Power? The Donors Are Still Unknown.</t>
+          <t>A Haunting Coda: The 7 Days Gene Hackman’s Wife Could No Longer Care for Him</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>President Trump has not made good on a promise to disclose who contributed to his transition effort.</t>
+          <t>The exact details may never be known, but Mr. Hackman, 95 with advanced Alzheimer’s, was alone for about a week after his wife and sole caregiver died.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06pol-transition-topart-btmg/06pol-transition-topart-btmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/08/multimedia/08nat-hackman-death-03-fbwh/08nat-hackman-death-03-fbwh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1312,22 +1304,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Trump’s Cuts to Federal Work Force Push Out Young Employees</t>
+          <t>Twin Test Flight Explosions Show SpaceX Is No Longer Defying Gravity</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The loss of early career workers has raised concerns about the impact on the next generation of civil servants.</t>
+          <t>Consecutive losses of the Starship rocket suggest that the company’s engineers are not as infallible as its fans may think.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-youngworkers-01-tlkc/00dc-youngworkers-01-tlkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07HS-starship-01-vtfk/07HS-starship-01-vtfk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1340,50 +1332,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>How the Biggest Crypto Heist in History Went Down</t>
+          <t>Elon Musk Is Making Republicans Sweat and Giving Democrats a New Target</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The cryptocurrency exchange Bybit lost $1.5 billion to North Korean hackers last month — and it all traced back to an account on a free digital storage service.</t>
+          <t>His unusual governing arrangement with President Trump is opening Republicans up to being yoked politically to Mr. Musk, who polls show is broadly unpopular.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/business/00crypto-robbery/00crypto-robbery-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07pol-musk-politics-topart-hjbw/07pol-musk-politics-topart-hjbw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>In One Totem, a Marriage of Materials and Cultures</t>
+          <t>Trump’s Tariffs Could Help Tesla, by Hurting Its Rivals More</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Joseph Walsh, an Irish designer, tries something new for the World Expo in Japan.</t>
+          <t>The electric car company led by Elon Musk builds all the cars it sells in the United States in California and Texas, shielding it from tariffs that could devastate competitors.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-walsh-zpmg/09sp-design-walsh-zpmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07musk-trade-01-vctq/07musk-trade-01-vctq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1396,22 +1388,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mirrors That Are Designed to Dazzle</t>
+          <t>What the Recent Cabinet Blowup Means for Musk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sometimes, the art of making mirrors has little to do with reflection.</t>
+          <t>A billionaire who likes to have control could face some limits.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-mirrors-03-qmcb/09sp-design-mirrors-03-qmcb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/04/06/multimedia/06-pol-on-politics-newsletter-tk-topitem-qtfw/06-pol-on-politics-newsletter-tk-topitem-qtfw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1424,26 +1416,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Do We Age Steadily, or in Bursts?</t>
+          <t>U.S. Suspends Ukraine’s Access to Satellite Imagery</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>New technologies are giving scientists a better understanding of how the process actually works.</t>
+          <t>Ukraine uses the technology to track the movement of Russian troops and assess damage to infrastructure.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/well/06WELL-NON-LINEAR-AGING/06WELL-NON-LINEAR-AGING-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07ukraine-satellite2-gjtq/07ukraine-satellite2-gjtq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1452,22 +1444,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Europe Races to Craft a Trump-Era Plan for Ukraine and Defense</t>
+          <t>Justice Dept. Doubles Down on Request to Break Up Google</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>European leaders are gathering in Brussels to discuss how to support Ukraine and fend more for themselves on defense.</t>
+          <t>In a court filing on Friday, the government signaled a continuation of tough regulatory pressure on the search giant.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06europe-summit-fglm/06europe-summit-fglm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/00biz-google-antitrust-hfo-1-pjzv/00biz-google-antitrust-hfo-1-pjzv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1480,22 +1472,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>This Trump Speech Was the Ultimate Loyalty Test</t>
+          <t>At Crypto Summit, Trump Says U.S. Will Be ‘the Bitcoin Superpower’</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Something has ruptured in American politics.</t>
+          <t>The first-of-its-kind event at the White House with top crypto executives showcased the president’s embrace of the once-renegade industry.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/opinion/05eks-trump-speech/05eks-trump-speech-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07biz-crypto-summit-1-qfbt/07biz-crypto-summit-1-qfbt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1508,22 +1500,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Discord in Early Talks With Bankers for Potential I.P.O.</t>
+          <t>Infighting in U.K.’s Anti-Immigration Party Now Involves the Police</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The app has become a mainstay of the video game community and young internet users.</t>
+          <t>Reform U.K., led by Nigel Farage, said it was investigating claims that one of its lawmakers had bullied staff members. He was also accused of “threats of physical violence” against another top party official.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05BIZ-DISCORD-jmgb/05BIZ-DISCORD-jmgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07uk-farage01-photo-cbhw/07uk-farage01-photo-cbhw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1536,20 +1528,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stocks rise after tariffs on car imports are delayed.</t>
+          <t>Eric Adams Names 4 New Deputy Mayors After Others Resigned in Protest</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The S&amp;P 500 jumped more than 1 percent on Wednesday, after two days of declines. Shares of automakers rallied.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>The four deputies announced their resignations last month in a show of opposition to the mayor’s cooperation with the Trump administration’s deportation agenda.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07met-adams-deputies-01-gcjt/07met-adams-deputies-01-gcjt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -1560,26 +1556,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Far-Right Israeli Minister Visits Washington After Years of Being Shunned</t>
+          <t>Texas Company’s Lander Dies on Moon the Day After Toppled Landing</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bezalel Smotrich, the Israeli finance minister, had drawn rebukes from the Biden administration for his opposition to a cease-fire in Gaza and his support for Jewish settlers in the West Bank.</t>
+          <t>The Athena lander from Intuitive Machines could not charge its batteries after ending up on its side. It largely failed to accomplish science and technology tasks for NASA and other customers.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05israel-dc-financial-jvpc/05israel-dc-financial-jvpc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07athena-moon-landing-02-fcvp/07athena-moon-landing-02-fcvp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1588,22 +1584,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Most Contaminated U.S. Nuclear Site Is Set to Be the Largest Solar Farm</t>
+          <t>3 Bulgarians Found Guilty of Spying for Russia in Britain and Europe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Plans to transform Hanford, which was integral to the nation’s nuclear arsenal after World War II, had just begun inching forward when President Trump started his second term.</t>
+          <t>The group of Bulgarians, who were living in the U.K., were convicted by a London jury of conducting surveillance operations across Europe on behalf of the Russian state.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/21/multimedia/00Hanford-01-wjgt/00Hanford-01-wjgt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07uk-spies01-photo-ltvf/07uk-spies01-photo-ltvf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1616,22 +1612,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Trove of Ancient Axes Shows Early Humans Made Tools From Bones</t>
+          <t>These Words Are Disappearing in the New Trump Administration</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Deep in a trench in Tanzania, researchers found dozens of tools crafted from animal bones some 1.5 million years old.</t>
+          <t>Federal agencies have issued guidance to employees on hundreds of terms to limit or avoid using. An analysis of government websites shows many of the same words being removed.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05SCI-TOOLS-promo-fcgm/05SCI-TOOLS-promo-fcgm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/2025-02-28-trump-admin-words-index/2025-02-28-trump-admin-words-index-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1644,20 +1640,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Max Scherzer has many more thoughts on robot umps: 'What problem are we really solving?'</t>
+          <t>Repeating Foreign Policy Mistakes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>If it’s challenge-system feedback baseball wants this spring, then I think we found just the man to supply it.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Readers respond to a column by Ross Douthat. Also: Elon Musk, SpaceX and the F.A.A.; cuts to U.S.A.I.D.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/opinion/01douthat/01douthat-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
@@ -1668,22 +1668,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Trump Officials Take Down List of Federal Properties for Possible Sale</t>
+          <t>Helen Schreider, Intrepid World Traveler, Is Dead at 98</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The Trump administration originally identified more than 440 federal properties that could be sold, which included the headquarters of the F.B.I. and Justice Department.</t>
+          <t>She and her husband were the first people to travel the length of the Americas in an amphibious vehicle. But he was recognized for their accomplishments long before she was.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05dc-gsa-vtkl/05dc-gsa-vtkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05Schreider--03-pfbk/05Schreider--03-pfbk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1696,22 +1696,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tesla Sales Slump in Europe as Anger Toward Elon Musk Grows</t>
+          <t>Fossil Fuels Are the Future, Energy Secretary Tells African Leaders</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>February numbers show the U.S. electric-car maker is struggling to attract buyers in the region. Mr. Musk’s politics aren’t helping.</t>
+          <t>Chris Wright’s remarks were welcomed at a time when countries across the region have felt whipsawed by cuts to longstanding African energy initiatives.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-tesla-sales-ptzc/05biz-tesla-sales-ptzc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07cli-powerafrica-01-jphv/07cli-powerafrica-01-jphv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1724,17 +1724,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>San Diego FC's CEO can turn to a past playbook to fix a new fan problem</t>
+          <t>Kyle Busch inches closer to snapping career-long NASCAR Cup Series winless streak</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>After navigating an early crisis brought on by fans in LAFC's expansion season, Tom Penn finds himself in similar waters in San Diego.</t>
+          <t>"We're all busting our butts," Kyle Busch says of his and team's effort to bring an end to the longest Cup Series dry spell of his career.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1748,20 +1748,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Michael McDowell on perseverance, life balance and racing in his prime: 12 Questions</t>
+          <t>When Corporate Rebranding Goes Wrong</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Michael McDowell talks about his journey in racing, what he's learned about work-life balance and much more in the latest 12 Questions.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>A British investment firm restored most of the vowels to its name after a widely ridiculed revamp that showed the pitfalls of trying to look cool in the digital age.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06xp-rebrand-dfiu/06xp-rebrand-dfiu-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
@@ -1772,22 +1776,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Turing Award Goes to 2 Pioneers of Artificial Intelligence</t>
+          <t>Is Google Search Cooked? + We’re Getting a U.S. Crypto Reserve? + What You’re Vibecoding</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Andrew Barto and Richard Sutton developed reinforcement learning, a technique vital to chatbots like ChatGPT.</t>
+          <t>“I think Google realizes that this is a once-in-a-generation chance to reinvent the search experience”</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/business/05BIZ-TURING-1/05BIZ-TURING-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/podcasts/07hardfork-google/07hardfork-google-threeByTwoSmallAt2X-v2.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1800,22 +1804,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Concert Ticket Prices Are Soaring, and Busting Gen Z’s Budgets</t>
+          <t>Whiplash From the White House, and a SpaceX Explosion</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>How can 20-somethings afford the high cost of seeing their favorite artists’ live shows? Some save; some go into debt.</t>
+          <t>Plus, how to win the lottery.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00GenZ-Concerts-01-lwph/00GenZ-Concerts-01-lwph-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/07-theheadlines/06dc-tariffs-gbkp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1828,24 +1832,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The Wizard of Vinyl Is in Kansas</t>
+          <t>Stocks Suffer Worst Week in Months as Tariffs Hang Over Wall St.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chad Kassem is on a mission — saving listeners “from bad sound” — at the rural factory where he pores over LPs from some of music’s most important artists.</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09KANSAS-VINYL-PROMO-qmkc/09KANSAS-VINYL-PROMO-qmkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Investors are worried about the economy and whether tariffs on America’s largest trading partners will stifle growth.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0</v>
       </c>
@@ -1856,22 +1856,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Let’s Hear It for the Ladies Who Lathe</t>
+          <t>As Catholics Gather for Jubilee, Just One Thing Is Missing: Francis</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>As contemporary woodworking loses its macho edge, it gains a whole new dimension.</t>
+          <t>For the faithful who have descended on Rome for an event that comes every 25 years, the absence of the pope has been especially deeply felt.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-wood-02-mwzl/09sp-design-wood-02-mwzl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/00pope-jubilee-01-fbkl/00pope-jubilee-01-fbkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1884,22 +1884,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>What Is a ‘Woman’s Watch’ in 2025?</t>
+          <t>As Layoffs Continue, Federal Workers Face Sluggish Job Market</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The category, a significant part of the Swiss watch export total, has undergone technical and aesthetic evolutions. So is a definition even possible these days?</t>
+          <t>Unemployment is low, but there isn’t much room to move around — especially for those with highly government-specific skills.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06sp-watches-women-inyt-04-mlqf/06sp-watches-women-inyt-04-mlqf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/00DC-FEDLABOR-qzpf/00DC-FEDLABOR-qzpf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1912,20 +1912,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bowden’s 2025 MLB report card: Offseason grades, takeaways, predictions for all 30 teams</t>
+          <t>Step Into the Real-Life Lumon Industries, the Breakout Star of ‘Severance’</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>I handed out six A's (including A-pluses and A-minuses), 12 B's, eight C's, three D's, and one F. Where did your team end up?</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Bell Works, the setting of the hit serial for Apple TV+, is now a tourist attraction, drawing fans to the architectural wonder.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07realestate-severance-02-bvwm/07realestate-severance-02-bvwm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
@@ -1936,22 +1940,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Judge Denies Musk’s Request to Block OpenAI’s For-Profit Plan</t>
+          <t>Bright Lights, Bot City: Having A.I. Plan a Dream Trip to New York</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The court said that Elon Musk could proceed with other parts of a lawsuit he brought against OpenAI last year.</t>
+          <t>Artificial intelligence has made trip planning and research much easier and faster, but drill down and double-check everything before you go.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-musk-tclz/05biz-musk-tclz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/28/travel/28aibot-roundup-illo/28aibot-roundup-illo-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1964,22 +1968,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Full Transcript of President Trump’s Speech to Congress</t>
+          <t>China Says It Offers Stability as Trump Sows Chaos. The Reality Is Complicated.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>In a speech to Congress in his first weeks in office, the president laid out his vision to remake U.S. policy on the military, trade, immigration and foreign aid.</t>
+          <t>China’s top foreign affairs official, Wang Yi, cast his country as a force for peace and order even as Beijing provokes its neighbors and fuels trade tensions.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04dc-transcript-wvkg/04dc-transcript-wvkg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/07china-diplo-gtwh/07china-diplo-gtwh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1992,22 +1996,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Xi’s Message: The Economy Is Strong, and China Won’t Back Down</t>
+          <t>Friday Briefing</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>As Chinese leaders meet in Beijing, they are striking a confident posture despite serious challenges to the economy and growing pressure from the United States.</t>
+          <t>Talks about Ukraine.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05china-congress-kcbm/05china-congress-kcbm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06ambriefing-europe-trump-news/06ambriefing-europe-trump-news-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2020,22 +2024,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fired CDC Scientists Are Reinstated for Now</t>
+          <t>An Australian Wedding So Nice They Celebrated It … Three Times</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>The fellows had been let go as part of the push to cut federal probationary employees that caused thousands of scientists from the C.D.C. and other agencies to lose their jobs.</t>
+          <t>Ahead of their civil ceremony, Mishti Rahman and Philip Kanis wanted to pay tribute to their Bangladeshi and Greek cultures, as well as their friends.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04trump-news-cdc1-tjhl/04trump-news-cdc1-tjhl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/07VOWS-RAHMAN-01-vwfh/07VOWS-RAHMAN-01-vwfh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2048,22 +2052,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lawsuit Over Zelle Scams Is Dropped by Consumer Bureau</t>
+          <t>Tariffs by Whim Keep Allies Off Balance, but Do the Same to Markets</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A spokeswoman for the payment app’s parent company said the lawsuit against three large banks was “without merit, and legally and factually flawed.”</t>
+          <t>Investors sent stock prices down on Thursday amid the uncertainty over what President Trump’s inconstancy means for the global economy.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-cfpb-zelle-jwcz/04biz-cfpb-zelle-jwcz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06dc-trump-power-topart-gphv/06dc-trump-power-topart-gphv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2076,22 +2080,18 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>It’s Hard to Believe How Cool These Dresses Are</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2025/03/04</t>
-        </is>
-      </c>
+          <t>Debris Rains Down After SpaceX Starship Test Flight</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Illuminated, kaleidoscopic dresses at Anrealage made the case that we’re all walking billboards.</t>
+          <t>While the Starship’s booster successfully returned to the launchpad, the upper-stage spacecraft failed in space and lost several engines and attitude control on March 6, tumbling in space.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04SCREEN-DRESSES-mlfw/04SCREEN-DRESSES-mlfw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06starship-launch-01-mcjv/06starship-launch-01-mcjv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2104,50 +2104,50 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A Straightforward Climate Fix Hits Another Setback</t>
+          <t>Elon Musk Proposes Privatizing Amtrak, Calling Rail Service ‘Sad’</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cutting down emissions of planet-warming methane from oil and gas production was supposed to be relatively simple. It hasn’t worked that way.</t>
+          <t>Amtrak, after investing more than $4 billion in a year to improve its creaky infrastructure and aging fleet, said it expected to make a profit for the first time under President Trump.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/climate/04cli-newsletter-methane/04cli-newsletter-methane-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06trump-news-amtrak-btfc/06trump-news-amtrak-btfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Europe Tries to Boost Military Spending as America Realigns</t>
+          <t>Breakup of SpaceX’s Starship Rocket Disrupts Florida Airports</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>The European Commission’s president unveiled a sweeping plan to help Ukraine and boost defense spending, but it won’t be easy.</t>
+          <t>Video showed the upper stage of the most powerful rocket ever built spinning out of control in space, a repeat of an unsuccessful test flight in January that led to debris falling over the Caribbean.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04europe-rearm-1-tjlq/04europe-rearm-1-tjlq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06starship-launch-01-mcjv/06starship-launch-01-mcjv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2160,22 +2160,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Trump’s Sharp Shift on Ukraine and Russia</t>
+          <t>Friday Briefing: A ‘Watershed Moment’ for Europe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Readers react to news about Russia and Ukraine. Also: A “horrified” expat and a “saddened” Canadian; the new tariffs; research cuts.</t>
+          <t>Plus, Bong Joon Ho’s “Mickey 17.”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-prexy-topart-vqzw/03dc-prexy-topart-vqzw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/07ambriefing-asia-leaders/07ambriefing-asia-leaders-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2188,22 +2188,18 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Companies in Europe Face Squeeze in U.S.-China Trade War</t>
+          <t>Expect more moon landings later this year.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Some European executives see rising trade tensions as a potential opportunity, but they are watching warily for more moves in Washington.</t>
-        </is>
-      </c>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04mwc-2-jtpk/04mwc-2-jtpk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-next-jvlg/06athena-moon-landing-next-jvlg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2216,20 +2212,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>What's the Cardinals' direction this year? Spring training mailbag, Part 1</t>
+          <t>Will the Shift to Clean Power Continue Under Trump?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>So far, the Cardinals' 2025 roster is looking pretty similar to 2024's. Are they still "planning for the future"?</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>Experts say that President Trump may be able to slow the transition away from fossil fuels, but he won’t be able to stop it completely.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06cli-newsletter-Transition-wjkf/06cli-newsletter-Transition-wjkf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
@@ -2240,22 +2240,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Government Knows A.G.I. Is Coming</t>
+          <t>An Unkind Policy for a Nonexistent Problem</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>The Biden administration’s A.I. adviser Ben Buchanan discusses how the U.S. government is preparing for artificial general intelligence — and all the challenges that remain.</t>
+          <t>People here speak lots of dfferent languages, but our lingua franca has never been in doubt.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/opinion/04eks-buchanan/04eks-buchanan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/10/opinion/06mcwhorter-newsletter-image/06mcwhorter-newsletter-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2268,18 +2268,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Government Knows A.G.I. is Coming</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>Why NASA Is Trying to Go Back to the Moon</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The Biden administration’s A.I. adviser Ben Buchanan discusses how the U.S. government is preparing for artificial general intelligence — and all the challenges that remain.</t>
+          <t>President Trump set the U.S. on a path to sending astronauts back to the lunar surface during his first term. Lately he has expressed more interest in Mars.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/opinion/04eks-buchanan/04eks-buchanan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-why-lkgb/06athena-moon-landing-why-lkgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2292,22 +2296,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>How Covid Remade America</t>
+          <t>You Asked, We Answered: How The Times Is Reporting on the Trump Administration</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>It feels as if the pandemic is behind us. But we’re living in the world it made.</t>
+          <t>Hundreds of readers asked about our coverage of the president. Times editors and reporters responded to some of the most common questions.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/opinion/covid-anniversary-cinemagraph23-still/covid-anniversary-cinemagraph23-still-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/02/26/reader-center/trust-trump-coverage-answers/trust-trump-coverage-answers-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2320,22 +2324,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>After the Apocalypse, Will We Decamp to a Suburb or a High-Rise?</t>
+          <t>Athena is bringing wheels and deals to the moon’s surface.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>“Paradise” and “Silo” have opposing takes on the future of urban organization, echoing the debate over America’s housing shortage today.</t>
-        </is>
-      </c>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/00Paradise-paradise-sub-kzmf/00Paradise-paradise-sub-kzmf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/science/06athena-moon-landing-rovers/06athena-moon-landing-rovers-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2348,22 +2348,18 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Can a Finnish Sauna Improve Society?</t>
+          <t>A robot will make a hop, a skip and a jump on the moon’s surface.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Contemporary sweat baths reflect the country’s architectural past — and propose a future in which simple, sustainable buildings can still be sublime.</t>
-        </is>
-      </c>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/t-magazine/04tmag-saunas-slide-DNIZ/04tmag-saunas-slide-DNIZ-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/science/06athena-moon-landing-hopper/06athena-moon-landing-hopper-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2376,22 +2372,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Showing Courage in Ukraine With Handfuls of Clay</t>
+          <t>A Long-Shot Bet to Bypass the Middlemen of Social Media</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Founded seven years ago in Kyiv, GORN Ceramics has become an object lesson in survival.</t>
+          <t>Facing the looming threat of A.I. as a competitor, some publishers are considering an alternative to the internet’s all-powerful algorithms.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-ukraine-02-fzvm/09sp-design-ukraine-02-fzvm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/00activity-pub-mtfc/00activity-pub-mtfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2404,22 +2400,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Loving a House From Afar, and Then Tearing it Down</t>
+          <t>‘Doom’ Has Everything, and Nothing</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A Pennsylvania couple left tech jobs to devote their time to renovating and selling homes. This dream project, however, won’t be put back on the market.</t>
+          <t>Anne Imhof’s three-hour spectacle of moody youth at the Armory is sweet sorrow, full of moping and muttering. Still, almost despite itself, it points to true art.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04location-brynmawr-07-gtpq/04location-brynmawr-07-gtpq-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/07/multimedia/06doom-imhof-review-01-mqgp/06doom-imhof-review-01-mqgp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2432,22 +2428,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>China Retaliates Against Trump Tariffs as Superpower Trade War Escalates</t>
+          <t>Hit by ‘Gut Punches,’ Scientists Band Together to Protest Trump</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Beijing imposed broad tariffs on imports of American food and said 15 U.S. companies could no longer buy from China without special permission.</t>
+          <t>Stand Up for Science aims to revive a movement that started in 2017, but with an all-new team and a more focused vision.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04Biz-China-Tariffs-tzlv/04Biz-China-Tariffs-tzlv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/HS-DCPROTEST-01-fqzl/HS-DCPROTEST-01-fqzl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2460,22 +2456,18 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Germany Needs to Get Its Act Together. Under Him, It Won’t.</t>
+          <t>Déjà moon? Another spacecraft just landed on the moon on Sunday.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Friedrich Merz, almost certain to be the country’s next chancellor, is yesterday’s man.</t>
-        </is>
-      </c>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/06/multimedia/04hermsmeier-mzqb/04hermsmeier-mzqb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-firefly-jgph/06athena-moon-landing-firefly-jgph-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2488,46 +2480,50 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LinkedIn, volunteers, and reliant on goodwill. Scouting in women's football's lower leagues remains embryonic</t>
+          <t>Intuitive Machines’ Athena Lander Is on the Moon, but Its Fate Is Unclear</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>The WSL has welcomed its first $1million transfer, but the women’s game remains embryonic elsewhere.</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>After hours of uncertainty, officials from the Houston company said there are clues that the spacecraft is on its side, which could limit the mission’s scientific accomplishments.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06athena-moon-landing-write-thru/06athena-moon-landing-write-thru-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Trump’s Tariffs on Canada, Mexico and China Snap Into Effect</t>
+          <t>Who’s Got Trump’s Ear on Tariffs?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>President Trump imposed hefty tariffs on the United States’ largest trading partners on Tuesday, roiling global relations and sending shock waves through industries that depend on trade.</t>
+          <t>Corporate leaders and investors continue to be caught off guard by the president’s trade policy, especially as deal talks heat up.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-dc-tariffs-01-wqpb/04biz-dc-tariffs-01-wqpb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06db-lutnick-cmgj/06db-lutnick-cmgj-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2540,22 +2536,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Senate Confirms Linda McMahon as Education Secretary</t>
+          <t>Who Paid for Trump’s Transition to Power? The Donors Are Still Unknown.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ms. McMahon, who has little experience in private or public schools, will take over a department that President Trump has already begun to dismantle.</t>
+          <t>President Trump has not made good on a promise to disclose who contributed to his transition effort.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-mcmahon-fqgp/03dc-mcmahon-fqgp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06pol-transition-topart-btmg/06pol-transition-topart-btmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2568,22 +2564,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trump Said Tariffs Are Coming</t>
+          <t>Trump’s Cuts to Federal Work Force Push Out Young Employees</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Also, Cuomo entered the New York mayoral race as a front-runner. Here’s the latest at the end of Monday.</t>
+          <t>The loss of early career workers has raised concerns about the impact on the next generation of civil servants.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03evening-trade/04ambriefing-asia-trade-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-youngworkers-01-tlkc/00dc-youngworkers-01-tlkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2596,50 +2592,50 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SpaceX Scrubs 8th Starship Rocket Test Flight</t>
+          <t>How the Biggest Crypto Heist in History Went Down</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The company has made changes to the vehicle, part of which blew up over the Caribbean in January during the seventh test flight. An issue during the countdown halted Monday’s launch.</t>
+          <t>The cryptocurrency exchange Bybit lost $1.5 billion to North Korean hackers last month — and it all traced back to an account on a free digital storage service.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03starship-launch-pmgq/03starship-launch-pmgq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/business/00crypto-robbery/00crypto-robbery-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Social Security and Sex Robots: Musk Veers Off Script With Joe Rogan</t>
+          <t>In One Totem, a Marriage of Materials and Cultures</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Elon Musk’s three-hour interview with “The Joe Rogan Experience” offered a window into his worldview that was by turns crude and contradictory.</t>
+          <t>Joseph Walsh, an Irish designer, tries something new for the World Expo in Japan.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/us/politics/03pol-on-politics-newsletter-rogan/03pol-on-politics-newsletter-rogan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-walsh-zpmg/09sp-design-walsh-zpmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2652,20 +2648,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Stocks Post Biggest Loss of the Year on Trump’s Tariff Plans</t>
+          <t>Mirrors That Are Designed to Dazzle</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The S&amp;P 500 fell 1.8 percent on Monday after President Trump doubled down on plans to impose 25 percent tariffs on Canada and Mexico starting Tuesday.</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>Sometimes, the art of making mirrors has little to do with reflection.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-mirrors-03-qmcb/09sp-design-mirrors-03-qmcb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
@@ -2676,26 +2676,26 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Dozens of Government Technology Specialists Fired</t>
+          <t>Do We Age Steadily, or in Bursts?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>The employees, who worked at the General Services Administration’s 18F unit, fixed technical problems and built products aimed at increasing efficiency for various federal agencies.</t>
+          <t>New technologies are giving scientists a better understanding of how the process actually works.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/us/politics/03trump-news-18f/03trump-news-18f-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/well/06WELL-NON-LINEAR-AGING/06WELL-NON-LINEAR-AGING-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2704,22 +2704,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9 Stylish Products for Your Home</t>
+          <t>Europe Races to Craft a Trump-Era Plan for Ukraine and Defense</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A sampling of recent home goods from veteran craftspeople.</t>
+          <t>European leaders are gathering in Brussels to discuss how to support Ukraine and fend more for themselves on defense.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-products-vjfb/09sp-design-products-vjfb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06europe-summit-fglm/06europe-summit-fglm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2732,50 +2732,50 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A.I. Start-Up Anthropic Closes Deal That Values It at $61.5 Billion</t>
+          <t>This Trump Speech Was the Ultimate Loyalty Test</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>The announcement follows new fund-raising efforts from rivals like OpenAI, which is set to close a deal that values the company at $300 billion, and Elon Musk’s xAI.</t>
+          <t>Something has ruptured in American politics.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03BIZ-ANTHROPIC-hwgq/03BIZ-ANTHROPIC-hwgq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/opinion/05eks-trump-speech/05eks-trump-speech-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The ‘Disgraceful Display’ in the Oval Office</t>
+          <t>Discord in Early Talks With Bankers for Potential I.P.O.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Readers react to the heated meeting between Presidents Trump and Zelensky. Also: Donald Trump’s lies; money for lab scientists; The New Yorker at 100.</t>
+          <t>The app has become a mainstay of the video game community and young internet users.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/01/multimedia/28DC-PREXY-top/28DC-PREXY-A1-ptwg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05BIZ-DISCORD-jmgb/05BIZ-DISCORD-jmgb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2788,50 +2788,46 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TSMC, the Chip Giant, Is to Spend $100 Billion in U.S. Over the Next 4 Years</t>
+          <t>Stocks rise after tariffs on car imports are delayed.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>The investment plan, announced at the White House, was made as the Trump administration pushes to bring chip making back to the United States.</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03biz-tsmc-sub-vzgl-wpzq/03biz-tsmc-sub-vzgl-wpzq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>The S&amp;P 500 jumped more than 1 percent on Wednesday, after two days of declines. Shares of automakers rallied.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Where to Stream the 2025 Oscar Winners, From ‘Anora’ to ‘Flow’</t>
+          <t>Far-Right Israeli Minister Visits Washington After Years of Being Shunned</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Most of the awarded films, including the winner of best picture, can be watched at home. Here’s a guide to catch up.</t>
+          <t>Bezalel Smotrich, the Israeli finance minister, had drawn rebukes from the Biden administration for his opposition to a cease-fire in Gaza and his support for Jewish settlers in the West Bank.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/anora-winner1-kjfc/anora-winner1-kjfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05israel-dc-financial-jvpc/05israel-dc-financial-jvpc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2844,22 +2840,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Read the Memo</t>
+          <t>Most Contaminated U.S. Nuclear Site Is Set to Be the Largest Solar Farm</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Nicholas Enrich, acting assistant administrator for global health at U.S.A.I.D., spelled out projections for human health following cuts to foreign aid. Mr. Enrich was placed on administrative leave over the weekend.</t>
+          <t>Plans to transform Hanford, which was integral to the nation’s nuclear arsenal after World War II, had just begun inching forward when President Trump started his second term.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/doc-99c7a88b-2940-4c9d-9395-9-promo/doc-99c7a88b-2940-4c9d-9395-9-promo-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/02/21/multimedia/00Hanford-01-wjgt/00Hanford-01-wjgt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2872,22 +2868,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Trump Faces Blowback Over Plans for Crypto Reserve</t>
+          <t>Trove of Ancient Axes Shows Early Humans Made Tools From Bones</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Digital assets like Bitcoin rallied on the president’s backing for a strategic holding, but even some conservatives and industry backers disapproved.</t>
+          <t>Deep in a trench in Tanzania, researchers found dozens of tools crafted from animal bones some 1.5 million years old.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03db-newsletter-trumpbtc-zgkv/03db-newsletter-trumpbtc-zgkv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05SCI-TOOLS-promo-fcgm/05SCI-TOOLS-promo-fcgm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2900,24 +2896,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Trump Turns Up Trade Pressure on China After Beijing Fails to Come Running</t>
+          <t>Max Scherzer has many more thoughts on robot umps: 'What problem are we really solving?'</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>China is still cautiously trying to figure out what Trump wants. The president has threatened big tariffs in response to the inaction.</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02dc-china-trade1-wjkl/02dc-china-trade1-wjkl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>If it’s challenge-system feedback baseball wants this spring, then I think we found just the man to supply it.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>0</v>
       </c>
@@ -2928,22 +2920,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>What Big-Business Leaders, Including Democrats, Say Privately About Trump</t>
+          <t>Trump Officials Take Down List of Federal Properties for Possible Sale</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Behind closed doors, many top executives voice support for the new administration.</t>
+          <t>The Trump administration originally identified more than 440 federal properties that could be sold, which included the headquarters of the F.B.I. and Justice Department.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/05/multimedia/28rattner-zcwt/28rattner-zcwt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05dc-gsa-vtkl/05dc-gsa-vtkl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2956,22 +2948,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A Thousand Snipers in the Sky: The New War in Ukraine</t>
+          <t>Tesla Sales Slump in Europe as Anger Toward Elon Musk Grows</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Drones have changed the war in Ukraine, with soldiers adapting off-the-shelf models and swarming the front lines.</t>
+          <t>February numbers show the U.S. electric-car maker is struggling to attract buyers in the region. Mr. Musk’s politics aren’t helping.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/19/multimedia/2025-02-07-ukraine-drones-index/2025-02-07-ukraine-drones-index-threeByTwoSmallAt2X-v4.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-tesla-sales-ptzc/05biz-tesla-sales-ptzc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2984,22 +2976,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>How VAR disrupts Premier League betting and how to get ahead of that</t>
+          <t>San Diego FC's CEO can turn to a past playbook to fix a new fan problem</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Julia Ranney explores the effects of Video Assistant Refereeing (VAR) technology on modern-day betting.</t>
+          <t>After navigating an early crisis brought on by fans in LAFC's expansion season, Tom Penn finds himself in similar waters in San Diego.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -3008,24 +3000,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Problems With New California Bar Exam Enrage Test Takers and Cloud Their Futures</t>
+          <t>Michael McDowell on perseverance, life balance and racing in his prime: 12 Questions</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Many aspiring lawyers could not access the test and cited delays or other issues. A lawmaker has called for an investigation.</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/02/us/nat-bar-exam-1/nat-bar-exam-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>Michael McDowell talks about his journey in racing, what he's learned about work-life balance and much more in the latest 12 Questions.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
         <v>0</v>
       </c>
@@ -3036,22 +3024,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DOGE Claims Credit for Killing Contracts That Were Already Dead</t>
+          <t>Turing Award Goes to 2 Pioneers of Artificial Intelligence</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Elon Musk’s group claimed credit for canceling procurement agreements that had been completed years earlier, the latest in a string of public errors on its site.</t>
+          <t>Andrew Barto and Richard Sutton developed reinforcement learning, a technique vital to chatbots like ChatGPT.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-doge-errors-kzhc/00dc-doge-errors-kzhc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/business/05BIZ-TURING-1/05BIZ-TURING-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3064,22 +3052,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Horticulturists, Biologists, Engineers: Federal ‘Bloat’ or Valued Experts?</t>
+          <t>Concert Ticket Prices Are Soaring, and Busting Gen Z’s Budgets</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>President Trump’s effort to remake the government is a direct challenge to a decades-long effort to build a civil service stocked with experts. Critics say it will backfire.</t>
+          <t>How can 20-somethings afford the high cost of seeing their favorite artists’ live shows? Some save; some go into debt.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-brain-drain-1-cvtl/00dc-brain-drain-1-cvtl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00GenZ-Concerts-01-lwph/00GenZ-Concerts-01-lwph-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3092,22 +3080,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Professor, Scrutinized for Ties to China, Sues to Get His Job Back</t>
+          <t>The Wizard of Vinyl Is in Kansas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Feng Tao, who was tenured at the University of Kansas, was cleared of charges brought under a discontinued Trump program aimed at Chinese spying.</t>
+          <t>Chad Kassem is on a mission — saving listeners “from bad sound” — at the rural factory where he pores over LPs from some of music’s most important artists.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/02/24/multimedia/NAT-CHINESE-SCIENTISTS-01-vmtw/NAT-CHINESE-SCIENTISTS-01-vmtw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09KANSAS-VINYL-PROMO-qmkc/09KANSAS-VINYL-PROMO-qmkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3120,22 +3108,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>320 Years Before the Muppets, the English Took Manhattan</t>
+          <t>Woodworking Loses Its Macho Edge and Embraces New Shapes</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>In “Taking Manhattan,” Russell Shorto pays close attention to the darker aspects of colonial life on the island at the center of the world.</t>
+          <t>Women are giving the field a new dimension with narrative content, visually daring forms and social commentary, while also building community.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04shorto1-jfmg/04shorto1-jfmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-wood-02-mwzl/09sp-design-wood-02-mwzl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3148,22 +3136,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>His Pitch to Save His Career: A Podcast About His Dead Best Friend</t>
+          <t>What Is a ‘Woman’s Watch’ in 2025?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>In Jeremy Gordon’s novel, “See Friendship,” a journalist reinvestigates his past, only to discover the story he was told about his friend’s death wasn’t true.</t>
+          <t>The category, a significant part of the Swiss watch export total, has undergone technical and aesthetic evolutions. So is a definition even possible these days?</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/books/review/04Gordon-review-sub/04Gordon-review-sub-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/06sp-watches-women-inyt-04-mlqf/06sp-watches-women-inyt-04-mlqf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3176,24 +3164,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>‘Full on Fight Club’: How Trump Is Crushing U.S. Climate Policy</t>
+          <t>Bowden’s 2025 MLB report card: Offseason grades, takeaways, predictions for all 30 teams</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>President Trump has quickly transformed America’s approach to the environment, withholding funds and stretching the limits of presidential power.</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00cli-demolish-01-cjzm/00cli-demolish-01-cjzm-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>I handed out six A's (including A-pluses and A-minuses), 12 B's, eight C's, three D's, and one F. Where did your team end up?</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
         <v>0</v>
       </c>
@@ -3204,20 +3188,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Innovative content, Son and the king: How Tottenham became the biggest English club on TikTok</t>
+          <t>Judge Denies Musk’s Request to Block OpenAI’s For-Profit Plan</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Spurs have the most followers on the site of any Premier League club and it's down to strategy, eclectic posts and a South Korean superstar</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>The court said that Elon Musk could proceed with other parts of a lawsuit he brought against OpenAI last year.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05biz-musk-tclz/05biz-musk-tclz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
@@ -3228,22 +3216,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>‘Moon Dust on Our Boots’: Texas Company’s Blue Ghost Lands on Lunar Surface</t>
+          <t>Full Transcript of President Trump’s Speech to Congress</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Firefly Aerospace’s robotic vehicle became the second privately built spacecraft to make a soft landing on the moon. It could soon be joined by two more private lunar landers.</t>
+          <t>In a speech to Congress in his first weeks in office, the president laid out his vision to remake U.S. policy on the military, trade, immigration and foreign aid.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/04/01/multimedia/01blue-ghost-landing-kwvf/01blue-ghost-landing-kwvf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/04/04/multimedia/04dc-transcript-wvkg/04dc-transcript-wvkg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3256,22 +3244,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hazel N. Dukes, Longtime Civil Rights Stalwart, Dies at 92</t>
+          <t>Xi’s Message: The Economy Is Strong, and China Won’t Back Down</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>She was president of the national N.A.A.C.P. in the early 1990s and headed the organization’s New York State Conference from 1977 until her death.</t>
+          <t>As Chinese leaders meet in Beijing, they are striking a confident posture despite serious challenges to the economy and growing pressure from the United States.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/03/multimedia/01Dukes--bmcp/01Dukes--bmcp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/05china-congress-kcbm/05china-congress-kcbm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3284,22 +3272,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Explained: Why a VAR review took eight minutes on first weekend of new technology</t>
+          <t>Fired CDC Scientists Are Reinstated for Now</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>It was supposed to be the innovation that made offside decisions almost instantaneous.</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>The fellows had been let go as part of the push to cut federal probationary employees that caused thousands of scientists from the C.D.C. and other agencies to lose their jobs.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04trump-news-cdc1-tjhl/04trump-news-cdc1-tjhl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -3308,22 +3300,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Trump Relaxes Limits on Counterterrorism Strikes Outside Conventional War Zones</t>
+          <t>Lawsuit Over Zelle Scams Is Dropped by Consumer Bureau</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>The president has rescinded a Biden-era system that required high-level approval for certain drone strikes and commando raids, reverting to a more permissive system.</t>
+          <t>A spokeswoman for the payment app’s parent company said the lawsuit against three large banks was “without merit, and legally and factually flawed.”</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01dc-drone-predator/01dc-drone-predator-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-cfpb-zelle-jwcz/04biz-cfpb-zelle-jwcz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3336,20 +3328,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Norway to keep VAR despite pro clubs voting to scrap system</t>
+          <t>It’s Hard to Believe How Cool These Dresses Are</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>In January, the 32 teams from Norway's top two divisions voted 19-13 in favour of discontinuing the use of VAR "as soon as possible".</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>Illuminated, kaleidoscopic dresses at Anrealage made the case that we’re all walking billboards.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04SCREEN-DRESSES-mlfw/04SCREEN-DRESSES-mlfw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
@@ -3360,20 +3356,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Goalkeeper time-wasting will lead to corners from 2025-26</t>
+          <t>A Straightforward Climate Fix Hits Another Setback</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Law 12.2 currently says goalkeepers can only hold onto the ball for six seconds but it has not been properly applied for years.</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>Cutting down emissions of planet-warming methane from oil and gas production was supposed to be relatively simple. It hasn’t worked that way.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/climate/04cli-newsletter-methane/04cli-newsletter-methane-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
@@ -3384,22 +3384,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hair Transplants and the New Male Vanity</t>
+          <t>Europe Tries to Boost Military Spending as America Realigns</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Maximal transparency is fine, but can’t anybody age naturally anymore?</t>
+          <t>The European Commission’s president unveiled a sweeping plan to help Ukraine and boost defense spending, but it won’t be easy.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/04/opinion/01Grose-newsletter/01Grose-newsletter-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04europe-rearm-1-tjlq/04europe-rearm-1-tjlq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3412,20 +3412,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cubs' Matthew Boyd isn't reinventing himself. He's doubling down on who he is</t>
+          <t>Trump’s Sharp Shift on Ukraine and Russia</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Entering his 11th season in the big leagues, there's reason to believe Boyd's best years are ahead of him.</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Readers react to news about Russia and Ukraine. Also: A “horrified” expat and a “saddened” Canadian; the new tariffs; research cuts.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-prexy-topart-vqzw/03dc-prexy-topart-vqzw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
@@ -3436,22 +3440,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>The Dark Heart of Trump’s Foreign Policy</t>
+          <t>Companies in Europe Face Squeeze in U.S.-China Trade War</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
+          <t>Some European executives see rising trade tensions as a potential opportunity, but they are watching warily for more moves in Washington.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04mwc-2-jtpk/04mwc-2-jtpk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3464,20 +3468,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The Dark Heart of Trump’s Foreign Policy</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>What's the Cardinals' direction this year? Spring training mailbag, Part 1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
-        </is>
-      </c>
+          <t>So far, the Cardinals' 2025 roster is looking pretty similar to 2024's. Are they still "planning for the future"?</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
         <v>0</v>
       </c>
@@ -3488,22 +3492,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cuts to National Weather Service Leave Forecasters Reeling</t>
+          <t>The Government Knows A.G.I. Is Coming</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>“Lives are being put in danger,” one meteorologist warned, as some experts feared the cuts will harm public safety.</t>
+          <t>The Biden administration’s A.I. adviser Ben Buchanan discusses how the U.S. government is preparing for artificial general intelligence — and all the challenges that remain.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01weatherreax-noaa-jgcq/01weatherreax-noaa-jgcq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/04/opinion/04eks-buchanan/04eks-buchanan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3516,22 +3520,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Why Do S.U.V.s Look Like Trucks Again?</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2025/03/01</t>
-        </is>
-      </c>
+          <t>The Government Knows A.G.I. is Coming</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>For decades, carlike curves were in. Now, buyers are interested in sport utility vehicles that feature right-angles and off-road cred.</t>
+          <t>The Biden administration’s A.I. adviser Ben Buchanan discusses how the U.S. government is preparing for artificial general intelligence — and all the challenges that remain.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2025/03/02/multimedia/00SUV-1-zlmc/00SUV-1-zlmc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2025/03/04/opinion/04eks-buchanan/04eks-buchanan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3544,28 +3544,1280 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>How Covid Remade America</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>It feels as if the pandemic is behind us. But we’re living in the world it made.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/opinion/covid-anniversary-cinemagraph23-still/covid-anniversary-cinemagraph23-still-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>After the Apocalypse, Will We Decamp to a Suburb or a High-Rise?</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>“Paradise” and “Silo” have opposing takes on the future of urban organization, echoing the debate over America’s housing shortage today.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/00Paradise-paradise-sub-kzmf/00Paradise-paradise-sub-kzmf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Can a Finnish Sauna Improve Society?</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Contemporary sweat baths reflect the country’s architectural past — and propose a future in which simple, sustainable buildings can still be sublime.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/t-magazine/04tmag-saunas-slide-DNIZ/04tmag-saunas-slide-DNIZ-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Showing Courage in Ukraine With Handfuls of Clay</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Founded seven years ago in Kyiv, GORN Ceramics has become an object lesson in survival.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-ukraine-02-fzvm/09sp-design-ukraine-02-fzvm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Loving a House From Afar, and Then Tearing it Down</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A Pennsylvania couple left tech jobs to devote their time to renovating and selling homes. This dream project, however, won’t be put back on the market.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04location-brynmawr-07-gtpq/04location-brynmawr-07-gtpq-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>China Retaliates Against Trump Tariffs as Superpower Trade War Escalates</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Beijing imposed broad tariffs on imports of American food and said 15 U.S. companies could no longer buy from China without special permission.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04Biz-China-Tariffs-tzlv/04Biz-China-Tariffs-tzlv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Germany Needs to Get Its Act Together. Under Him, It Won’t.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Friedrich Merz, almost certain to be the country’s next chancellor, is yesterday’s man.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/06/multimedia/04hermsmeier-mzqb/04hermsmeier-mzqb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>LinkedIn, volunteers, and reliant on goodwill. Scouting in women's football's lower leagues remains embryonic</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>The WSL has welcomed its first $1million transfer, but the women’s game remains embryonic elsewhere.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Trump’s Tariffs on Canada, Mexico and China Snap Into Effect</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>President Trump imposed hefty tariffs on the United States’ largest trading partners on Tuesday, roiling global relations and sending shock waves through industries that depend on trade.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04biz-dc-tariffs-01-wqpb/04biz-dc-tariffs-01-wqpb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Senate Confirms Linda McMahon as Education Secretary</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ms. McMahon, who has little experience in private or public schools, will take over a department that President Trump has already begun to dismantle.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03dc-mcmahon-fqgp/03dc-mcmahon-fqgp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Trump Said Tariffs Are Coming</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Also, Cuomo entered the New York mayoral race as a front-runner. Here’s the latest at the end of Monday.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03evening-trade/04ambriefing-asia-trade-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SpaceX Scrubs 8th Starship Rocket Test Flight</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>The company has made changes to the vehicle, part of which blew up over the Caribbean in January during the seventh test flight. An issue during the countdown halted Monday’s launch.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03starship-launch-pmgq/03starship-launch-pmgq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Social Security and Sex Robots: Musk Veers Off Script With Joe Rogan</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Elon Musk’s three-hour interview with “The Joe Rogan Experience” offered a window into his worldview that was by turns crude and contradictory.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/us/politics/03pol-on-politics-newsletter-rogan/03pol-on-politics-newsletter-rogan-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Stocks Post Biggest Loss of the Year on Trump’s Tariff Plans</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>The S&amp;P 500 fell 1.8 percent on Monday after President Trump doubled down on plans to impose 25 percent tariffs on Canada and Mexico starting Tuesday.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Dozens of Government Technology Specialists Fired</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>The employees, who worked at the General Services Administration’s 18F unit, fixed technical problems and built products aimed at increasing efficiency for various federal agencies.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/us/politics/03trump-news-18f/03trump-news-18f-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>9 Stylish Products for Your Home</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A sampling of recent home goods from veteran craftspeople.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/09/multimedia/09sp-design-products-vjfb/09sp-design-products-vjfb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>A.I. Start-Up Anthropic Closes Deal That Values It at $61.5 Billion</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>The announcement follows new fund-raising efforts from rivals like OpenAI, which is set to close a deal that values the company at $300 billion, and Elon Musk’s xAI.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03BIZ-ANTHROPIC-hwgq/03BIZ-ANTHROPIC-hwgq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>The ‘Disgraceful Display’ in the Oval Office</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Readers react to the heated meeting between Presidents Trump and Zelensky. Also: Donald Trump’s lies; money for lab scientists; The New Yorker at 100.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/28DC-PREXY-top/28DC-PREXY-A1-ptwg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TSMC, the Chip Giant, Is to Spend $100 Billion in U.S. Over the Next 4 Years</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>The investment plan, announced at the White House, was made as the Trump administration pushes to bring chip making back to the United States.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03biz-tsmc-sub-vzgl-wpzq/03biz-tsmc-sub-vzgl-wpzq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Where to Stream the 2025 Oscar Winners, From ‘Anora’ to ‘Flow’</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Most of the awarded films, including the winner of best picture, can be watched at home. Here’s a guide to catch up.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/anora-winner1-kjfc/anora-winner1-kjfc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Read the Memo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Nicholas Enrich, acting assistant administrator for global health at U.S.A.I.D., spelled out projections for human health following cuts to foreign aid. Mr. Enrich was placed on administrative leave over the weekend.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/doc-99c7a88b-2940-4c9d-9395-9-promo/doc-99c7a88b-2940-4c9d-9395-9-promo-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Trump Faces Blowback Over Plans for Crypto Reserve</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Digital assets like Bitcoin rallied on the president’s backing for a strategic holding, but even some conservatives and industry backers disapproved.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/03db-newsletter-trumpbtc-zgkv/03db-newsletter-trumpbtc-zgkv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Trump Turns Up Trade Pressure on China After Beijing Fails to Come Running</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>China is still cautiously trying to figure out what Trump wants. The president has threatened big tariffs in response to the inaction.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/02dc-china-trade1-wjkl/02dc-china-trade1-wjkl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>What Big-Business Leaders, Including Democrats, Say Privately About Trump</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Behind closed doors, many top executives voice support for the new administration.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/05/multimedia/28rattner-zcwt/28rattner-zcwt-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>A Thousand Snipers in the Sky: The New War in Ukraine</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Drones have changed the war in Ukraine, with soldiers adapting off-the-shelf models and swarming the front lines.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/19/multimedia/2025-02-07-ukraine-drones-index/2025-02-07-ukraine-drones-index-threeByTwoSmallAt2X-v4.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>How VAR disrupts Premier League betting and how to get ahead of that</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Julia Ranney explores the effects of Video Assistant Refereeing (VAR) technology on modern-day betting.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Problems With New California Bar Exam Enrage Test Takers and Cloud Their Futures</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Many aspiring lawyers could not access the test and cited delays or other issues. A lawmaker has called for an investigation.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/us/nat-bar-exam-1/nat-bar-exam-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>DOGE Claims Credit for Killing Contracts That Were Already Dead</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Elon Musk’s group claimed credit for canceling procurement agreements that had been completed years earlier, the latest in a string of public errors on its site.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-doge-errors-kzhc/00dc-doge-errors-kzhc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Horticulturists, Biologists, Engineers: Federal ‘Bloat’ or Valued Experts?</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>President Trump’s effort to remake the government is a direct challenge to a decades-long effort to build a civil service stocked with experts. Critics say it will backfire.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00dc-brain-drain-1-cvtl/00dc-brain-drain-1-cvtl-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Professor, Scrutinized for Ties to China, Sues to Get His Job Back</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Feng Tao, who was tenured at the University of Kansas, was cleared of charges brought under a discontinued Trump program aimed at Chinese spying.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/24/multimedia/NAT-CHINESE-SCIENTISTS-01-vmtw/NAT-CHINESE-SCIENTISTS-01-vmtw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>320 Years Before the Muppets, the English Took Manhattan</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>In “Taking Manhattan,” Russell Shorto pays close attention to the darker aspects of colonial life on the island at the center of the world.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/multimedia/04shorto1-jfmg/04shorto1-jfmg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>His Pitch to Save His Career: A Podcast About His Dead Best Friend</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>In Jeremy Gordon’s novel, “See Friendship,” a journalist reinvestigates his past, only to discover the story he was told about his friend’s death wasn’t true.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/books/review/04Gordon-review-sub/04Gordon-review-sub-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>‘Full on Fight Club’: How Trump Is Crushing U.S. Climate Policy</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>President Trump has quickly transformed America’s approach to the environment, withholding funds and stretching the limits of presidential power.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/02/28/multimedia/00cli-demolish-01-cjzm/00cli-demolish-01-cjzm-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Innovative content, Son and the king: How Tottenham became the biggest English club on TikTok</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025/03/02</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Spurs have the most followers on the site of any Premier League club and it's down to strategy, eclectic posts and a South Korean superstar</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>‘Moon Dust on Our Boots’: Texas Company’s Blue Ghost Lands on Lunar Surface</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Firefly Aerospace’s robotic vehicle became the second privately built spacecraft to make a soft landing on the moon. It could soon be joined by two more private lunar landers.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/04/01/multimedia/01blue-ghost-landing-kwvf/01blue-ghost-landing-kwvf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hazel N. Dukes, Longtime Civil Rights Stalwart, Dies at 92</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>She was president of the national N.A.A.C.P. in the early 1990s and headed the organization’s New York State Conference from 1977 until her death.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/03/multimedia/01Dukes--bmcp/01Dukes--bmcp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Explained: Why a VAR review took eight minutes on first weekend of new technology</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>It was supposed to be the innovation that made offside decisions almost instantaneous.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Trump Relaxes Limits on Counterterrorism Strikes Outside Conventional War Zones</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The president has rescinded a Biden-era system that required high-level approval for certain drone strikes and commando raids, reverting to a more permissive system.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01dc-drone-predator/01dc-drone-predator-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Norway to keep VAR despite pro clubs voting to scrap system</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>In January, the 32 teams from Norway's top two divisions voted 19-13 in favour of discontinuing the use of VAR "as soon as possible".</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Goalkeeper time-wasting will lead to corners from 2025-26</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Law 12.2 currently says goalkeepers can only hold onto the ball for six seconds but it has not been properly applied for years.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hair Transplants and the New Male Vanity</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Maximal transparency is fine, but can’t anybody age naturally anymore?</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/04/opinion/01Grose-newsletter/01Grose-newsletter-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Cubs' Matthew Boyd isn't reinventing himself. He's doubling down on who he is</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Entering his 11th season in the big leagues, there's reason to believe Boyd's best years are ahead of him.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>The Dark Heart of Trump’s Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>The Dark Heart of Trump’s Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>The journalist Fareed Zakaria discusses the worldview emerging from Trump’s foreign policy decisions regarding Ukraine, Gaza, China and beyond.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/25/opinion/01eks-zakaria-image/25eks-gurri-video-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Cuts to National Weather Service Leave Forecasters Reeling</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>“Lives are being put in danger,” one meteorologist warned, as some experts feared the cuts will harm public safety.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/01/multimedia/01weatherreax-noaa-jgcq/01weatherreax-noaa-jgcq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Why Do S.U.V.s Look Like Trucks Again?</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>For decades, carlike curves were in. Now, buyers are interested in sport utility vehicles that feature right-angles and off-road cred.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2025/03/02/multimedia/00SUV-1-zlmc/00SUV-1-zlmc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
           <t>Inside the Democratic Disaster That Didn’t Happen in November</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>2025/03/01</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>The party’s storehouse of everything it knows about American voters required an extraordinary intervention to keep it running, people involved said. A meltdown could have crippled its campaigns nationwide.</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>https://static01.nyt.com/images/2025/02/27/multimedia/dems-data10-gjhv/dems-data10-gjhv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="b">
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
